--- a/Addsum.xlsx
+++ b/Addsum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b3bbfbef5e37dc7/Documents/R_PHD_analysis/Multigenerational_analysis/life-history-traits-analysis/Tai/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3FE91A8-A389-4796-A437-B427440A4345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{D3FE91A8-A389-4796-A437-B427440A4345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CDC64C4-02B2-435B-9C3C-D1F7B42CD356}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F8041E9A-3BEB-47D5-9BC9-9BC8F2897E52}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="18">
   <si>
     <t>mean</t>
   </si>
@@ -448,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B149D2EE-305E-4EF7-8D1A-C400C3127869}">
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:Q1"/>
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -703,21 +703,27 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
+      <c r="D13">
+        <v>12.25</v>
+      </c>
+      <c r="E13">
+        <v>12.25</v>
+      </c>
       <c r="F13">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
@@ -726,10 +732,10 @@
         <v>9</v>
       </c>
       <c r="D14">
-        <v>12.25</v>
+        <v>4</v>
       </c>
       <c r="E14">
-        <v>12.25</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>4</v>
@@ -737,16 +743,19 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>6.5</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
       </c>
       <c r="F15">
         <v>4</v>
@@ -754,7 +763,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
@@ -763,10 +772,10 @@
         <v>9</v>
       </c>
       <c r="D16">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>4</v>
@@ -774,16 +783,19 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17">
         <v>8</v>
+      </c>
+      <c r="E17">
+        <v>0.81649700000000003</v>
       </c>
       <c r="F17">
         <v>4</v>
@@ -791,7 +803,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
@@ -803,7 +815,7 @@
         <v>8</v>
       </c>
       <c r="E18">
-        <v>0.81649700000000003</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>4</v>
@@ -811,19 +823,19 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="D19">
-        <v>8</v>
+        <v>2274.953</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>48.631779999999999</v>
       </c>
       <c r="F19">
         <v>4</v>
@@ -831,7 +843,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
@@ -840,10 +852,10 @@
         <v>10</v>
       </c>
       <c r="D20">
-        <v>2274.953</v>
+        <v>2245.645</v>
       </c>
       <c r="E20">
-        <v>48.631779999999999</v>
+        <v>63.123420000000003</v>
       </c>
       <c r="F20">
         <v>4</v>
@@ -851,19 +863,19 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
       </c>
       <c r="D21">
-        <v>2245.645</v>
+        <v>17.75</v>
       </c>
       <c r="E21">
-        <v>63.123420000000003</v>
+        <v>1</v>
       </c>
       <c r="F21">
         <v>4</v>
@@ -871,7 +883,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
@@ -880,10 +892,10 @@
         <v>10</v>
       </c>
       <c r="D22">
-        <v>17.75</v>
+        <v>21.5</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>6.3639609999999998</v>
       </c>
       <c r="F22">
         <v>4</v>
@@ -891,19 +903,19 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
       </c>
       <c r="D23">
-        <v>21.5</v>
+        <v>3.75</v>
       </c>
       <c r="E23">
-        <v>6.3639609999999998</v>
+        <v>0.57735000000000003</v>
       </c>
       <c r="F23">
         <v>4</v>
@@ -911,7 +923,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
@@ -920,10 +932,10 @@
         <v>10</v>
       </c>
       <c r="D24">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="E24">
-        <v>0.57735000000000003</v>
+        <v>1.4142140000000001</v>
       </c>
       <c r="F24">
         <v>4</v>
@@ -931,27 +943,27 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D25">
-        <v>5</v>
+        <v>8.6666670000000003</v>
       </c>
       <c r="E25">
-        <v>1.4142140000000001</v>
+        <v>1.1254701</v>
       </c>
       <c r="F25">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B26" t="s">
         <v>4</v>
@@ -960,10 +972,10 @@
         <v>11</v>
       </c>
       <c r="D26">
-        <v>8.6666670000000003</v>
+        <v>9.3333329999999997</v>
       </c>
       <c r="E26">
-        <v>1.1254701</v>
+        <v>0.57735000000000003</v>
       </c>
       <c r="F26">
         <v>3</v>
@@ -971,19 +983,19 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
         <v>11</v>
       </c>
       <c r="D27">
-        <v>9.3333329999999997</v>
+        <v>2354.5369999999998</v>
       </c>
       <c r="E27">
-        <v>0.57735000000000003</v>
+        <v>276.60599999999999</v>
       </c>
       <c r="F27">
         <v>3</v>
@@ -991,7 +1003,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
@@ -1000,10 +1012,10 @@
         <v>11</v>
       </c>
       <c r="D28">
-        <v>2354.5369999999998</v>
+        <v>2274.5970000000002</v>
       </c>
       <c r="E28">
-        <v>276.60599999999999</v>
+        <v>67.132350000000002</v>
       </c>
       <c r="F28">
         <v>3</v>
@@ -1011,19 +1023,19 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
         <v>11</v>
       </c>
       <c r="D29">
-        <v>2274.5970000000002</v>
+        <v>16</v>
       </c>
       <c r="E29">
-        <v>67.132350000000002</v>
+        <v>7.0710680000000004</v>
       </c>
       <c r="F29">
         <v>3</v>
@@ -1031,7 +1043,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B30" t="s">
         <v>7</v>
@@ -1040,10 +1052,10 @@
         <v>11</v>
       </c>
       <c r="D30">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E30">
-        <v>7.0710680000000004</v>
+        <v>6</v>
       </c>
       <c r="F30">
         <v>3</v>
@@ -1051,19 +1063,19 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
         <v>11</v>
       </c>
       <c r="D31">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="E31">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F31">
         <v>3</v>
@@ -1071,7 +1083,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B32" t="s">
         <v>8</v>
@@ -1080,10 +1092,10 @@
         <v>11</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>4.33</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>3.21455</v>
       </c>
       <c r="F32">
         <v>3</v>
@@ -1091,27 +1103,27 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D33">
-        <v>4.33</v>
+        <v>7.25</v>
       </c>
       <c r="E33">
-        <v>3.21455</v>
+        <v>0.5</v>
       </c>
       <c r="F33">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B34" t="s">
         <v>4</v>
@@ -1120,7 +1132,7 @@
         <v>12</v>
       </c>
       <c r="D34">
-        <v>7.25</v>
+        <v>7.75</v>
       </c>
       <c r="E34">
         <v>0.5</v>
@@ -1131,19 +1143,19 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
         <v>12</v>
       </c>
       <c r="D35">
-        <v>7.75</v>
+        <v>2226.5430000000001</v>
       </c>
       <c r="E35">
-        <v>0.5</v>
+        <v>45.584479999999999</v>
       </c>
       <c r="F35">
         <v>4</v>
@@ -1151,7 +1163,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
@@ -1160,10 +1172,10 @@
         <v>12</v>
       </c>
       <c r="D36">
-        <v>2226.5430000000001</v>
+        <v>2353.23</v>
       </c>
       <c r="E36">
-        <v>45.584479999999999</v>
+        <v>103.2764</v>
       </c>
       <c r="F36">
         <v>4</v>
@@ -1171,19 +1183,19 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
         <v>12</v>
       </c>
       <c r="D37">
-        <v>2353.23</v>
+        <v>16.25</v>
       </c>
       <c r="E37">
-        <v>103.2764</v>
+        <v>2.629956</v>
       </c>
       <c r="F37">
         <v>4</v>
@@ -1191,7 +1203,7 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
@@ -1203,7 +1215,7 @@
         <v>16.25</v>
       </c>
       <c r="E38">
-        <v>2.629956</v>
+        <v>10.30776</v>
       </c>
       <c r="F38">
         <v>4</v>
@@ -1211,19 +1223,19 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
         <v>12</v>
       </c>
       <c r="D39">
-        <v>16.25</v>
+        <v>10</v>
       </c>
       <c r="E39">
-        <v>10.30776</v>
+        <v>0.81649700000000003</v>
       </c>
       <c r="F39">
         <v>4</v>
@@ -1231,7 +1243,7 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B40" t="s">
         <v>8</v>
@@ -1240,10 +1252,10 @@
         <v>12</v>
       </c>
       <c r="D40">
-        <v>10</v>
+        <v>3.75</v>
       </c>
       <c r="E40">
-        <v>0.81649700000000003</v>
+        <v>0.95742700000000003</v>
       </c>
       <c r="F40">
         <v>4</v>
@@ -1251,27 +1263,27 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D41">
-        <v>3.75</v>
+        <v>8.6666670000000003</v>
       </c>
       <c r="E41">
-        <v>0.95742700000000003</v>
+        <v>1.154701</v>
       </c>
       <c r="F41">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B42" t="s">
         <v>4</v>
@@ -1280,10 +1292,10 @@
         <v>13</v>
       </c>
       <c r="D42">
-        <v>8.6666670000000003</v>
+        <v>9.3333329999999997</v>
       </c>
       <c r="E42">
-        <v>1.154701</v>
+        <v>0.57735000000000003</v>
       </c>
       <c r="F42">
         <v>3</v>
@@ -1291,19 +1303,19 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C43" t="s">
         <v>13</v>
       </c>
       <c r="D43">
-        <v>9.3333329999999997</v>
+        <v>2354.5369999999998</v>
       </c>
       <c r="E43">
-        <v>0.57735000000000003</v>
+        <v>276.60599999999999</v>
       </c>
       <c r="F43">
         <v>3</v>
@@ -1311,7 +1323,7 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B44" t="s">
         <v>6</v>
@@ -1320,10 +1332,10 @@
         <v>13</v>
       </c>
       <c r="D44">
-        <v>2354.5369999999998</v>
+        <v>2274.5970000000002</v>
       </c>
       <c r="E44">
-        <v>276.60599999999999</v>
+        <v>67.132350000000002</v>
       </c>
       <c r="F44">
         <v>3</v>
@@ -1331,19 +1343,19 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C45" t="s">
         <v>13</v>
       </c>
       <c r="D45">
-        <v>2274.5970000000002</v>
+        <v>16</v>
       </c>
       <c r="E45">
-        <v>67.132350000000002</v>
+        <v>7.0710680000000004</v>
       </c>
       <c r="F45">
         <v>3</v>
@@ -1351,7 +1363,7 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B46" t="s">
         <v>7</v>
@@ -1360,10 +1372,10 @@
         <v>13</v>
       </c>
       <c r="D46">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E46">
-        <v>7.0710680000000004</v>
+        <v>6</v>
       </c>
       <c r="F46">
         <v>3</v>
@@ -1371,19 +1383,19 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
         <v>13</v>
       </c>
       <c r="D47">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="E47">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F47">
         <v>3</v>
@@ -1391,7 +1403,7 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B48" t="s">
         <v>8</v>
@@ -1400,32 +1412,12 @@
         <v>13</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>4.3333329999999997</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>3.21455</v>
       </c>
       <c r="F48">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" t="s">
-        <v>5</v>
-      </c>
-      <c r="B49" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49">
-        <v>4.3333329999999997</v>
-      </c>
-      <c r="E49">
-        <v>3.21455</v>
-      </c>
-      <c r="F49">
         <v>3</v>
       </c>
     </row>

--- a/Addsum.xlsx
+++ b/Addsum.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b3bbfbef5e37dc7/Documents/R_PHD_analysis/Multigenerational_analysis/life-history-traits-analysis/Tai/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mxa1132-admin\OneDrive\Documents\life-history-traits-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{5E618822-A9D6-49BE-AD28-0DCF4DEFA31D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5E52EA-2359-4479-8EBD-E25CAA26D03E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F8041E9A-3BEB-47D5-9BC9-9BC8F2897E52}"/>
   </bookViews>
@@ -38,9 +38,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="24">
-  <si>
-    <t>mean</t>
-  </si>
   <si>
     <t>N</t>
   </si>
@@ -110,6 +107,9 @@
   <si>
     <t xml:space="preserve"> </t>
   </si>
+  <si>
+    <t>SMD</t>
+  </si>
 </sst>
 </file>
 
@@ -150,14 +150,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -474,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B149D2EE-305E-4EF7-8D1A-C400C3127869}">
-  <dimension ref="A1:AA116"/>
+  <dimension ref="A1:V97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S84" sqref="S84"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -486,24 +482,24 @@
     <col min="3" max="3" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -511,18 +507,18 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2">
         <v>-0.77951889725773604</v>
@@ -534,15 +530,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3">
         <v>0.43096000000000001</v>
@@ -554,15 +550,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4">
         <v>-1.71065036230637</v>
@@ -574,15 +570,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5">
         <v>-1.8339754945379301</v>
@@ -594,15 +590,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6">
         <v>-1.7939665317603799</v>
@@ -614,15 +610,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7">
         <v>-1.8491244497330701</v>
@@ -634,15 +630,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8">
         <v>1.57453805842831</v>
@@ -654,15 +650,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9">
         <v>-1</v>
@@ -674,15 +670,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
         <v>2</v>
       </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10">
         <v>1.4031214775804499</v>
@@ -694,15 +690,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11">
         <v>1.4624941965560601</v>
@@ -713,28 +709,16 @@
       <c r="F11">
         <v>4</v>
       </c>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27">
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12">
         <v>-0.39426</v>
@@ -745,30 +729,19 @@
       <c r="F12">
         <v>4</v>
       </c>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-    </row>
-    <row r="13" spans="1:27">
+      <c r="R12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13">
         <v>-2.20839675740734</v>
@@ -779,28 +752,16 @@
       <c r="F13">
         <v>4</v>
       </c>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-    </row>
-    <row r="14" spans="1:27">
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14">
         <v>-1.8121023614424301</v>
@@ -811,28 +772,16 @@
       <c r="F14">
         <v>4</v>
       </c>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-    </row>
-    <row r="15" spans="1:27">
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15">
         <v>-43</v>
@@ -843,28 +792,16 @@
       <c r="F15">
         <v>4</v>
       </c>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
-    </row>
-    <row r="16" spans="1:27">
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
         <v>7</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
       </c>
       <c r="D16">
         <v>-2.0801848365168198</v>
@@ -875,32 +812,17 @@
       <c r="F16">
         <v>4</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="1:27">
+      <c r="V16" s="2"/>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
         <v>7</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
       </c>
       <c r="D17">
         <v>2.2360679549995801</v>
@@ -911,31 +833,16 @@
       <c r="F17">
         <v>4</v>
       </c>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-    </row>
-    <row r="18" spans="1:27">
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
         <v>2</v>
       </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18">
         <v>0.39009471499680098</v>
@@ -947,21 +854,16 @@
         <v>4</v>
       </c>
       <c r="H18" s="2"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-    </row>
-    <row r="19" spans="1:27">
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19">
         <v>1.44913814923804</v>
@@ -972,21 +874,16 @@
       <c r="F19">
         <v>4</v>
       </c>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="1:27">
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D20">
         <v>-1.83020096454151</v>
@@ -997,21 +894,16 @@
       <c r="F20">
         <v>4</v>
       </c>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
-    </row>
-    <row r="21" spans="1:27">
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D21">
         <v>-1.8323759021947199</v>
@@ -1022,22 +914,16 @@
       <c r="F21">
         <v>4</v>
       </c>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
-      <c r="AA21" s="3"/>
-    </row>
-    <row r="22" spans="1:27">
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22">
         <v>-1.84438835917261</v>
@@ -1048,22 +934,16 @@
       <c r="F22">
         <v>4</v>
       </c>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
-    </row>
-    <row r="23" spans="1:27">
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D23">
         <v>-1.7844199006823001</v>
@@ -1074,19 +954,16 @@
       <c r="F23">
         <v>4</v>
       </c>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
-      <c r="AA23" s="3"/>
-    </row>
-    <row r="24" spans="1:27">
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D24">
         <v>1.62018534920394</v>
@@ -1097,19 +974,16 @@
       <c r="F24">
         <v>4</v>
       </c>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
-      <c r="AA24" s="3"/>
-    </row>
-    <row r="25" spans="1:27">
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D25">
         <v>1.6461095024963199</v>
@@ -1120,19 +994,16 @@
       <c r="F25">
         <v>4</v>
       </c>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="3"/>
-      <c r="AA25" s="3"/>
-    </row>
-    <row r="26" spans="1:27">
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
         <v>2</v>
       </c>
-      <c r="B26" t="s">
-        <v>3</v>
-      </c>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1143,19 +1014,16 @@
       <c r="F26">
         <v>4</v>
       </c>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="3"/>
-      <c r="AA26" s="3"/>
-    </row>
-    <row r="27" spans="1:27">
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D27">
         <v>1.5202791091023</v>
@@ -1166,19 +1034,16 @@
       <c r="F27">
         <v>4</v>
       </c>
-      <c r="Y27" s="3"/>
-      <c r="Z27" s="3"/>
-      <c r="AA27" s="3"/>
-    </row>
-    <row r="28" spans="1:27">
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D28">
         <v>-1.8534550372446099</v>
@@ -1189,29 +1054,16 @@
       <c r="F28">
         <v>4</v>
       </c>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="3"/>
-      <c r="AA28" s="3"/>
-    </row>
-    <row r="29" spans="1:27">
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D29">
         <v>-1.8436248603457099</v>
@@ -1222,30 +1074,16 @@
       <c r="F29">
         <v>4</v>
       </c>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
-      <c r="X29" s="3"/>
-      <c r="Y29" s="3"/>
-      <c r="Z29" s="3"/>
-      <c r="AA29" s="3"/>
-    </row>
-    <row r="30" spans="1:27">
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D30">
         <v>-1.75027838638335</v>
@@ -1256,30 +1094,16 @@
       <c r="F30">
         <v>4</v>
       </c>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
-      <c r="V30" s="3"/>
-      <c r="W30" s="3"/>
-      <c r="X30" s="3"/>
-      <c r="Y30" s="3"/>
-      <c r="Z30" s="3"/>
-      <c r="AA30" s="3"/>
-    </row>
-    <row r="31" spans="1:27">
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D31">
         <v>-1.7432821485482499</v>
@@ -1290,30 +1114,16 @@
       <c r="F31">
         <v>4</v>
       </c>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
-      <c r="U31" s="3"/>
-      <c r="V31" s="3"/>
-      <c r="W31" s="3"/>
-      <c r="X31" s="3"/>
-      <c r="Y31" s="3"/>
-      <c r="Z31" s="3"/>
-      <c r="AA31" s="3"/>
-    </row>
-    <row r="32" spans="1:27">
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D32">
         <v>1.4303472883216</v>
@@ -1324,30 +1134,16 @@
       <c r="F32">
         <v>4</v>
       </c>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
-      <c r="V32" s="3"/>
-      <c r="W32" s="3"/>
-      <c r="X32" s="3"/>
-      <c r="Y32" s="3"/>
-      <c r="Z32" s="3"/>
-      <c r="AA32" s="3"/>
-    </row>
-    <row r="33" spans="1:27">
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D33">
         <v>0.67684203914637697</v>
@@ -1358,30 +1154,16 @@
       <c r="F33">
         <v>4</v>
       </c>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
-      <c r="U33" s="3"/>
-      <c r="V33" s="3"/>
-      <c r="W33" s="3"/>
-      <c r="X33" s="3"/>
-      <c r="Y33" s="3"/>
-      <c r="Z33" s="3"/>
-      <c r="AA33" s="3"/>
-    </row>
-    <row r="34" spans="1:27">
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
         <v>2</v>
       </c>
-      <c r="B34" t="s">
-        <v>3</v>
-      </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D34">
         <v>-0.93541519338773704</v>
@@ -1392,30 +1174,16 @@
       <c r="F34">
         <v>4</v>
       </c>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
-      <c r="V34" s="3"/>
-      <c r="W34" s="3"/>
-      <c r="X34" s="3"/>
-      <c r="Y34" s="3"/>
-      <c r="Z34" s="3"/>
-      <c r="AA34" s="3"/>
-    </row>
-    <row r="35" spans="1:27">
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D35">
         <v>1.26131271372943</v>
@@ -1426,30 +1194,16 @@
       <c r="F35">
         <v>4</v>
       </c>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
-      <c r="U35" s="3"/>
-      <c r="V35" s="3"/>
-      <c r="W35" s="3"/>
-      <c r="X35" s="3"/>
-      <c r="Y35" s="3"/>
-      <c r="Z35" s="3"/>
-      <c r="AA35" s="3"/>
-    </row>
-    <row r="36" spans="1:27">
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D36">
         <v>-1.8423067974717899</v>
@@ -1460,30 +1214,16 @@
       <c r="F36">
         <v>4</v>
       </c>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
-      <c r="U36" s="3"/>
-      <c r="V36" s="3"/>
-      <c r="W36" s="3"/>
-      <c r="X36" s="3"/>
-      <c r="Y36" s="3"/>
-      <c r="Z36" s="3"/>
-      <c r="AA36" s="3"/>
-    </row>
-    <row r="37" spans="1:27">
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D37">
         <v>-1.58788823833691</v>
@@ -1494,30 +1234,16 @@
       <c r="F37">
         <v>4</v>
       </c>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="3"/>
-      <c r="U37" s="3"/>
-      <c r="V37" s="3"/>
-      <c r="W37" s="3"/>
-      <c r="X37" s="3"/>
-      <c r="Y37" s="3"/>
-      <c r="Z37" s="3"/>
-      <c r="AA37" s="3"/>
-    </row>
-    <row r="38" spans="1:27">
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D38">
         <v>-1.84163732324531</v>
@@ -1528,30 +1254,16 @@
       <c r="F38">
         <v>4</v>
       </c>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
-      <c r="S38" s="3"/>
-      <c r="T38" s="3"/>
-      <c r="U38" s="3"/>
-      <c r="V38" s="3"/>
-      <c r="W38" s="3"/>
-      <c r="X38" s="3"/>
-      <c r="Y38" s="3"/>
-      <c r="Z38" s="3"/>
-      <c r="AA38" s="3"/>
-    </row>
-    <row r="39" spans="1:27">
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D39">
         <v>-1.73889843120217</v>
@@ -1562,30 +1274,16 @@
       <c r="F39">
         <v>4</v>
       </c>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
-      <c r="S39" s="3"/>
-      <c r="T39" s="3"/>
-      <c r="U39" s="3"/>
-      <c r="V39" s="3"/>
-      <c r="W39" s="3"/>
-      <c r="X39" s="3"/>
-      <c r="Y39" s="3"/>
-      <c r="Z39" s="3"/>
-      <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="1:27">
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D40">
         <v>1.84637245665271</v>
@@ -1596,30 +1294,16 @@
       <c r="F40">
         <v>4</v>
       </c>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="3"/>
-      <c r="U40" s="3"/>
-      <c r="V40" s="3"/>
-      <c r="W40" s="3"/>
-      <c r="X40" s="3"/>
-      <c r="Y40" s="3"/>
-      <c r="Z40" s="3"/>
-      <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="1:27">
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D41">
         <v>1.00803199896777</v>
@@ -1630,20 +1314,16 @@
       <c r="F41">
         <v>4</v>
       </c>
-      <c r="X41" s="3"/>
-      <c r="Y41" s="3"/>
-      <c r="Z41" s="3"/>
-      <c r="AA41" s="3"/>
-    </row>
-    <row r="42" spans="1:27">
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
         <v>2</v>
       </c>
-      <c r="B42" t="s">
-        <v>3</v>
-      </c>
       <c r="C42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D42">
         <v>1.01881887444636</v>
@@ -1654,22 +1334,16 @@
       <c r="F42">
         <v>4</v>
       </c>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="X42" s="3"/>
-      <c r="Y42" s="3"/>
-      <c r="Z42" s="3"/>
-      <c r="AA42" s="3"/>
-    </row>
-    <row r="43" spans="1:27">
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D43">
         <v>1.6624263056110999</v>
@@ -1680,22 +1354,16 @@
       <c r="F43">
         <v>4</v>
       </c>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="X43" s="3"/>
-      <c r="Y43" s="3"/>
-      <c r="Z43" s="3"/>
-      <c r="AA43" s="3"/>
-    </row>
-    <row r="44" spans="1:27">
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D44">
         <v>-2.5059642147117298</v>
@@ -1706,22 +1374,16 @@
       <c r="F44">
         <v>4</v>
       </c>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="X44" s="3"/>
-      <c r="Y44" s="3"/>
-      <c r="Z44" s="3"/>
-      <c r="AA44" s="3"/>
-    </row>
-    <row r="45" spans="1:27">
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D45">
         <v>-1.7986239696802599</v>
@@ -1732,22 +1394,16 @@
       <c r="F45">
         <v>4</v>
       </c>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="X45" s="3"/>
-      <c r="Y45" s="3"/>
-      <c r="Z45" s="3"/>
-      <c r="AA45" s="3"/>
-    </row>
-    <row r="46" spans="1:27">
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D46">
         <v>-1.8206753755701399</v>
@@ -1758,22 +1414,16 @@
       <c r="F46">
         <v>4</v>
       </c>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="X46" s="3"/>
-      <c r="Y46" s="3"/>
-      <c r="Z46" s="3"/>
-      <c r="AA46" s="3"/>
-    </row>
-    <row r="47" spans="1:27">
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D47">
         <v>-1.7586572429591001</v>
@@ -1784,22 +1434,16 @@
       <c r="F47">
         <v>4</v>
       </c>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="X47" s="3"/>
-      <c r="Y47" s="3"/>
-      <c r="Z47" s="3"/>
-      <c r="AA47" s="3"/>
-    </row>
-    <row r="48" spans="1:27">
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D48">
         <v>-1.36930528752672</v>
@@ -1810,21 +1454,16 @@
       <c r="F48">
         <v>4</v>
       </c>
-      <c r="J48" s="3"/>
-      <c r="X48" s="3"/>
-      <c r="Y48" s="3"/>
-      <c r="Z48" s="3"/>
-      <c r="AA48" s="3"/>
-    </row>
-    <row r="49" spans="1:27">
+    </row>
+    <row r="49" spans="1:16">
       <c r="A49" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D49">
         <v>0.67067040230174102</v>
@@ -1835,20 +1474,16 @@
       <c r="F49">
         <v>4</v>
       </c>
-      <c r="X49" s="3"/>
-      <c r="Y49" s="3"/>
-      <c r="Z49" s="3"/>
-      <c r="AA49" s="3"/>
-    </row>
-    <row r="50" spans="1:27">
+    </row>
+    <row r="50" spans="1:16">
       <c r="A50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
         <v>2</v>
       </c>
-      <c r="B50" t="s">
-        <v>3</v>
-      </c>
       <c r="C50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D50">
         <v>-6.0163371332020502E-2</v>
@@ -1859,20 +1494,16 @@
       <c r="F50">
         <v>4</v>
       </c>
-      <c r="X50" s="3"/>
-      <c r="Y50" s="3"/>
-      <c r="Z50" s="3"/>
-      <c r="AA50" s="3"/>
-    </row>
-    <row r="51" spans="1:27">
+    </row>
+    <row r="51" spans="1:16">
       <c r="A51" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B51" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D51">
         <v>1.47902009988315</v>
@@ -1883,18 +1514,16 @@
       <c r="F51">
         <v>4</v>
       </c>
-      <c r="X51" s="3"/>
-      <c r="Y51" s="3"/>
-    </row>
-    <row r="52" spans="1:27">
+    </row>
+    <row r="52" spans="1:16">
       <c r="A52" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D52">
         <v>-1.8218520592452201</v>
@@ -1905,18 +1534,16 @@
       <c r="F52">
         <v>4</v>
       </c>
-      <c r="X52" s="3"/>
-      <c r="Y52" s="3"/>
-    </row>
-    <row r="53" spans="1:27">
+    </row>
+    <row r="53" spans="1:16">
       <c r="A53" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D53">
         <v>-1.6668668641648701</v>
@@ -1927,18 +1554,16 @@
       <c r="F53">
         <v>4</v>
       </c>
-      <c r="X53" s="3"/>
-      <c r="Y53" s="3"/>
-    </row>
-    <row r="54" spans="1:27">
+    </row>
+    <row r="54" spans="1:16">
       <c r="A54" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D54">
         <v>-1.8076353111554599</v>
@@ -1949,29 +1574,16 @@
       <c r="F54">
         <v>4</v>
       </c>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
-      <c r="O54" s="3"/>
-      <c r="P54" s="3"/>
-      <c r="Q54" s="3"/>
-      <c r="R54" s="3"/>
-      <c r="S54" s="3"/>
-      <c r="T54" s="3"/>
-      <c r="X54" s="3"/>
-      <c r="Y54" s="3"/>
-    </row>
-    <row r="55" spans="1:27">
+    </row>
+    <row r="55" spans="1:16">
       <c r="A55" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C55" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D55">
         <v>-1.88070147483767</v>
@@ -1982,32 +1594,16 @@
       <c r="F55">
         <v>4</v>
       </c>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
-      <c r="O55" s="3"/>
-      <c r="P55" s="3"/>
-      <c r="Q55" s="3"/>
-      <c r="R55" s="3"/>
-      <c r="S55" s="3"/>
-      <c r="T55" s="3"/>
-      <c r="U55" s="3"/>
-      <c r="V55" s="3"/>
-      <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="1:27">
+    </row>
+    <row r="56" spans="1:16">
       <c r="A56" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D56">
         <v>1.30132452204613</v>
@@ -2018,32 +1614,16 @@
       <c r="F56">
         <v>4</v>
       </c>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
-      <c r="O56" s="3"/>
-      <c r="P56" s="3"/>
-      <c r="Q56" s="3"/>
-      <c r="R56" s="3"/>
-      <c r="S56" s="3"/>
-      <c r="T56" s="3"/>
-      <c r="U56" s="3"/>
-      <c r="V56" s="3"/>
-      <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="1:27">
+    </row>
+    <row r="57" spans="1:16">
       <c r="A57" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D57">
         <v>1.2404152083173901</v>
@@ -2054,32 +1634,16 @@
       <c r="F57">
         <v>4</v>
       </c>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3"/>
-      <c r="O57" s="3"/>
-      <c r="P57" s="3"/>
-      <c r="Q57" s="3"/>
-      <c r="R57" s="3"/>
-      <c r="S57" s="3"/>
-      <c r="T57" s="3"/>
-      <c r="U57" s="3"/>
-      <c r="V57" s="3"/>
-      <c r="W57" s="3"/>
-    </row>
-    <row r="58" spans="1:27">
+    </row>
+    <row r="58" spans="1:16">
       <c r="A58" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" t="s">
         <v>2</v>
       </c>
-      <c r="B58" t="s">
-        <v>3</v>
-      </c>
       <c r="C58" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D58">
         <v>0.96091967150823698</v>
@@ -2090,32 +1654,16 @@
       <c r="F58">
         <v>4</v>
       </c>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
-      <c r="N58" s="3"/>
-      <c r="O58" s="3"/>
-      <c r="P58" s="3"/>
-      <c r="Q58" s="3"/>
-      <c r="R58" s="3"/>
-      <c r="S58" s="3"/>
-      <c r="T58" s="3"/>
-      <c r="U58" s="3"/>
-      <c r="V58" s="3"/>
-      <c r="W58" s="3"/>
-    </row>
-    <row r="59" spans="1:27">
+    </row>
+    <row r="59" spans="1:16">
       <c r="A59" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B59" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C59" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D59">
         <v>1.4937996915758001</v>
@@ -2126,32 +1674,17 @@
       <c r="F59">
         <v>4</v>
       </c>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="3"/>
-      <c r="O59" s="3"/>
-      <c r="P59" s="4"/>
-      <c r="Q59" s="3"/>
-      <c r="R59" s="3"/>
-      <c r="S59" s="3"/>
-      <c r="T59" s="3"/>
-      <c r="U59" s="3"/>
-      <c r="V59" s="3"/>
-      <c r="W59" s="3"/>
-    </row>
-    <row r="60" spans="1:27">
+      <c r="P59" s="2"/>
+    </row>
+    <row r="60" spans="1:16">
       <c r="A60" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B60" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C60" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D60">
         <v>-1.8769540238800699</v>
@@ -2162,32 +1695,16 @@
       <c r="F60">
         <v>4</v>
       </c>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-      <c r="M60" s="3"/>
-      <c r="N60" s="3"/>
-      <c r="O60" s="3"/>
-      <c r="P60" s="3"/>
-      <c r="Q60" s="3"/>
-      <c r="R60" s="3"/>
-      <c r="S60" s="3"/>
-      <c r="T60" s="3"/>
-      <c r="U60" s="3"/>
-      <c r="V60" s="3"/>
-      <c r="W60" s="3"/>
-    </row>
-    <row r="61" spans="1:27">
+    </row>
+    <row r="61" spans="1:16">
       <c r="A61" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B61" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D61">
         <v>-1.98578757963332</v>
@@ -2198,32 +1715,16 @@
       <c r="F61">
         <v>4</v>
       </c>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
-      <c r="M61" s="3"/>
-      <c r="N61" s="3"/>
-      <c r="O61" s="3"/>
-      <c r="P61" s="3"/>
-      <c r="Q61" s="3"/>
-      <c r="R61" s="3"/>
-      <c r="S61" s="3"/>
-      <c r="T61" s="3"/>
-      <c r="U61" s="3"/>
-      <c r="V61" s="3"/>
-      <c r="W61" s="3"/>
-    </row>
-    <row r="62" spans="1:27">
+    </row>
+    <row r="62" spans="1:16">
       <c r="A62" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C62" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D62">
         <v>-1.8773675691010301</v>
@@ -2234,32 +1735,16 @@
       <c r="F62">
         <v>4</v>
       </c>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
-      <c r="N62" s="3"/>
-      <c r="O62" s="3"/>
-      <c r="P62" s="3"/>
-      <c r="Q62" s="3"/>
-      <c r="R62" s="3"/>
-      <c r="S62" s="3"/>
-      <c r="T62" s="3"/>
-      <c r="U62" s="3"/>
-      <c r="V62" s="3"/>
-      <c r="W62" s="3"/>
-    </row>
-    <row r="63" spans="1:27">
+    </row>
+    <row r="63" spans="1:16">
       <c r="A63" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C63" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D63">
         <v>-1.49127361462202</v>
@@ -2270,32 +1755,16 @@
       <c r="F63">
         <v>4</v>
       </c>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
-      <c r="M63" s="3"/>
-      <c r="N63" s="3"/>
-      <c r="O63" s="3"/>
-      <c r="P63" s="3"/>
-      <c r="Q63" s="3"/>
-      <c r="R63" s="3"/>
-      <c r="S63" s="3"/>
-      <c r="T63" s="3"/>
-      <c r="U63" s="3"/>
-      <c r="V63" s="3"/>
-      <c r="W63" s="3"/>
-    </row>
-    <row r="64" spans="1:27">
+    </row>
+    <row r="64" spans="1:16">
       <c r="A64" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C64" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D64">
         <v>1.3653741125068199</v>
@@ -2306,32 +1775,16 @@
       <c r="F64">
         <v>4</v>
       </c>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
-      <c r="L64" s="3"/>
-      <c r="M64" s="3"/>
-      <c r="N64" s="3"/>
-      <c r="O64" s="3"/>
-      <c r="P64" s="3"/>
-      <c r="Q64" s="3"/>
-      <c r="R64" s="3"/>
-      <c r="S64" s="3"/>
-      <c r="T64" s="3"/>
-      <c r="U64" s="3"/>
-      <c r="V64" s="3"/>
-      <c r="W64" s="3"/>
-    </row>
-    <row r="65" spans="1:25">
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D65">
         <v>1.6961132485564501</v>
@@ -2342,32 +1795,16 @@
       <c r="F65">
         <v>4</v>
       </c>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
-      <c r="L65" s="3"/>
-      <c r="M65" s="3"/>
-      <c r="N65" s="3"/>
-      <c r="O65" s="3"/>
-      <c r="P65" s="3"/>
-      <c r="Q65" s="3"/>
-      <c r="R65" s="3"/>
-      <c r="S65" s="3"/>
-      <c r="T65" s="3"/>
-      <c r="U65" s="3"/>
-      <c r="V65" s="3"/>
-      <c r="W65" s="3"/>
-    </row>
-    <row r="66" spans="1:25">
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66" t="s">
         <v>2</v>
       </c>
-      <c r="B66" t="s">
-        <v>3</v>
-      </c>
       <c r="C66" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D66">
         <v>0.70599906362170295</v>
@@ -2378,29 +1815,16 @@
       <c r="F66">
         <v>4</v>
       </c>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="3"/>
-      <c r="L66" s="3"/>
-      <c r="M66" s="3"/>
-      <c r="N66" s="3"/>
-      <c r="O66" s="3"/>
-      <c r="P66" s="3"/>
-      <c r="Q66" s="3"/>
-      <c r="R66" s="3"/>
-      <c r="S66" s="3"/>
-      <c r="T66" s="3"/>
-      <c r="U66" s="3"/>
-    </row>
-    <row r="67" spans="1:25">
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B67" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C67" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D67">
         <v>1.48582169786594</v>
@@ -2411,29 +1835,16 @@
       <c r="F67">
         <v>4</v>
       </c>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
-      <c r="L67" s="3"/>
-      <c r="M67" s="3"/>
-      <c r="N67" s="3"/>
-      <c r="O67" s="3"/>
-      <c r="P67" s="3"/>
-      <c r="Q67" s="3"/>
-      <c r="R67" s="3"/>
-      <c r="S67" s="3"/>
-      <c r="T67" s="3"/>
-      <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="1:25">
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B68" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C68" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D68">
         <v>-0.19410920384077099</v>
@@ -2444,29 +1855,16 @@
       <c r="F68">
         <v>4</v>
       </c>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
-      <c r="M68" s="3"/>
-      <c r="N68" s="3"/>
-      <c r="O68" s="3"/>
-      <c r="P68" s="3"/>
-      <c r="Q68" s="3"/>
-      <c r="R68" s="3"/>
-      <c r="S68" s="3"/>
-      <c r="T68" s="3"/>
-      <c r="U68" s="3"/>
-    </row>
-    <row r="69" spans="1:25">
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D69">
         <v>-0.19444911398384199</v>
@@ -2477,29 +1875,16 @@
       <c r="F69">
         <v>4</v>
       </c>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
-      <c r="L69" s="3"/>
-      <c r="M69" s="3"/>
-      <c r="N69" s="3"/>
-      <c r="O69" s="3"/>
-      <c r="P69" s="3"/>
-      <c r="Q69" s="3"/>
-      <c r="R69" s="3"/>
-      <c r="S69" s="3"/>
-      <c r="T69" s="3"/>
-      <c r="U69" s="3"/>
-    </row>
-    <row r="70" spans="1:25">
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B70" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D70">
         <v>-1.67557298169694</v>
@@ -2510,31 +1895,16 @@
       <c r="F70">
         <v>4</v>
       </c>
-      <c r="G70" s="3"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
-      <c r="L70" s="3"/>
-      <c r="M70" s="3"/>
-      <c r="N70" s="3"/>
-      <c r="O70" s="3"/>
-      <c r="P70" s="3"/>
-      <c r="Q70" s="3"/>
-      <c r="R70" s="3"/>
-      <c r="S70" s="3"/>
-      <c r="T70" s="3"/>
-      <c r="U70" s="3"/>
-      <c r="Y70" s="3"/>
-    </row>
-    <row r="71" spans="1:25">
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C71" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D71">
         <v>-2.9928506136409001</v>
@@ -2545,31 +1915,16 @@
       <c r="F71">
         <v>4</v>
       </c>
-      <c r="G71" s="3"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
-      <c r="K71" s="3"/>
-      <c r="L71" s="3"/>
-      <c r="M71" s="3"/>
-      <c r="N71" s="3"/>
-      <c r="O71" s="3"/>
-      <c r="P71" s="3"/>
-      <c r="Q71" s="3"/>
-      <c r="R71" s="3"/>
-      <c r="S71" s="3"/>
-      <c r="T71" s="3"/>
-      <c r="U71" s="3"/>
-      <c r="Y71" s="3"/>
-    </row>
-    <row r="72" spans="1:25">
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C72" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D72">
         <v>1.5553407111384301</v>
@@ -2580,31 +1935,16 @@
       <c r="F72">
         <v>4</v>
       </c>
-      <c r="G72" s="3"/>
-      <c r="I72" s="3"/>
-      <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
-      <c r="L72" s="3"/>
-      <c r="M72" s="3"/>
-      <c r="N72" s="3"/>
-      <c r="O72" s="3"/>
-      <c r="P72" s="3"/>
-      <c r="Q72" s="3"/>
-      <c r="R72" s="3"/>
-      <c r="S72" s="3"/>
-      <c r="T72" s="3"/>
-      <c r="U72" s="3"/>
-      <c r="Y72" s="3"/>
-    </row>
-    <row r="73" spans="1:25">
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C73" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D73">
         <v>1.1055416146785799</v>
@@ -2615,30 +1955,16 @@
       <c r="F73">
         <v>4</v>
       </c>
-      <c r="I73" s="3"/>
-      <c r="J73" s="3"/>
-      <c r="K73" s="3"/>
-      <c r="L73" s="3"/>
-      <c r="M73" s="3"/>
-      <c r="N73" s="3"/>
-      <c r="O73" s="3"/>
-      <c r="P73" s="3"/>
-      <c r="Q73" s="3"/>
-      <c r="R73" s="3"/>
-      <c r="S73" s="3"/>
-      <c r="T73" s="3"/>
-      <c r="U73" s="3"/>
-      <c r="Y73" s="3"/>
-    </row>
-    <row r="74" spans="1:25">
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74" t="s">
         <v>2</v>
       </c>
-      <c r="B74" t="s">
-        <v>3</v>
-      </c>
       <c r="C74" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D74">
         <v>0.61295164299375104</v>
@@ -2649,30 +1975,16 @@
       <c r="F74">
         <v>4</v>
       </c>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
-      <c r="L74" s="3"/>
-      <c r="M74" s="3"/>
-      <c r="N74" s="3"/>
-      <c r="O74" s="3"/>
-      <c r="P74" s="3"/>
-      <c r="Q74" s="3"/>
-      <c r="R74" s="3"/>
-      <c r="S74" s="3"/>
-      <c r="T74" s="3"/>
-      <c r="U74" s="3"/>
-      <c r="Y74" s="3"/>
-    </row>
-    <row r="75" spans="1:25">
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B75" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C75" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D75">
         <v>1.50093245428722</v>
@@ -2683,31 +1995,16 @@
       <c r="F75">
         <v>4</v>
       </c>
-      <c r="G75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
-      <c r="L75" s="3"/>
-      <c r="M75" s="3"/>
-      <c r="N75" s="3"/>
-      <c r="O75" s="3"/>
-      <c r="P75" s="3"/>
-      <c r="Q75" s="3"/>
-      <c r="R75" s="3"/>
-      <c r="S75" s="3"/>
-      <c r="T75" s="3"/>
-      <c r="U75" s="3"/>
-      <c r="Y75" s="3"/>
-    </row>
-    <row r="76" spans="1:25">
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C76" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D76">
         <v>-1.83879831369485</v>
@@ -2718,30 +2015,16 @@
       <c r="F76">
         <v>4</v>
       </c>
-      <c r="G76" s="3"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
-      <c r="K76" s="3"/>
-      <c r="L76" s="3"/>
-      <c r="M76" s="3"/>
-      <c r="N76" s="3"/>
-      <c r="O76" s="3"/>
-      <c r="P76" s="3"/>
-      <c r="Q76" s="3"/>
-      <c r="R76" s="3"/>
-      <c r="S76" s="3"/>
-      <c r="T76" s="3"/>
-      <c r="U76" s="3"/>
-    </row>
-    <row r="77" spans="1:25">
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C77" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D77">
         <v>-2.0064042517854102</v>
@@ -2752,29 +2035,16 @@
       <c r="F77">
         <v>4</v>
       </c>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
-      <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
-      <c r="M77" s="3"/>
-      <c r="N77" s="3"/>
-      <c r="O77" s="3"/>
-      <c r="P77" s="3"/>
-      <c r="Q77" s="3"/>
-      <c r="R77" s="3"/>
-      <c r="S77" s="3"/>
-      <c r="T77" s="3"/>
-      <c r="U77" s="3"/>
-    </row>
-    <row r="78" spans="1:25">
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C78" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D78">
         <v>-1.8136178383286801</v>
@@ -2785,29 +2055,16 @@
       <c r="F78">
         <v>4</v>
       </c>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
-      <c r="K78" s="3"/>
-      <c r="L78" s="3"/>
-      <c r="M78" s="3"/>
-      <c r="N78" s="3"/>
-      <c r="O78" s="3"/>
-      <c r="P78" s="3"/>
-      <c r="Q78" s="3"/>
-      <c r="R78" s="3"/>
-      <c r="S78" s="3"/>
-      <c r="T78" s="3"/>
-      <c r="U78" s="3"/>
-    </row>
-    <row r="79" spans="1:25">
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C79" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D79">
         <v>-1.78236662117749</v>
@@ -2818,29 +2075,16 @@
       <c r="F79">
         <v>4</v>
       </c>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
-      <c r="K79" s="3"/>
-      <c r="L79" s="3"/>
-      <c r="M79" s="3"/>
-      <c r="N79" s="3"/>
-      <c r="O79" s="3"/>
-      <c r="P79" s="3"/>
-      <c r="Q79" s="3"/>
-      <c r="R79" s="3"/>
-      <c r="S79" s="3"/>
-      <c r="T79" s="3"/>
-      <c r="U79" s="3"/>
-    </row>
-    <row r="80" spans="1:25">
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C80" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D80">
         <v>1.4798268130360901</v>
@@ -2851,30 +2095,16 @@
       <c r="F80">
         <v>4</v>
       </c>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
-      <c r="K80" s="3"/>
-      <c r="L80" s="3"/>
-      <c r="M80" s="3"/>
-      <c r="N80" s="3"/>
-      <c r="O80" s="3"/>
-      <c r="P80" s="3"/>
-      <c r="Q80" s="3"/>
-      <c r="R80" s="3"/>
-      <c r="S80" s="3"/>
-      <c r="T80" s="3"/>
-      <c r="U80" s="3"/>
-    </row>
-    <row r="81" spans="1:22">
+    </row>
+    <row r="81" spans="1:17">
       <c r="A81" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C81" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D81">
         <v>1.3063063389966501</v>
@@ -2885,493 +2115,12 @@
       <c r="F81">
         <v>4</v>
       </c>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
-      <c r="L81" s="3"/>
-      <c r="M81" s="3"/>
-      <c r="N81" s="3"/>
-      <c r="O81" s="3"/>
-      <c r="P81" s="3"/>
-      <c r="Q81" s="3"/>
-      <c r="R81" s="3"/>
-      <c r="S81" s="3"/>
-      <c r="T81" s="3"/>
-      <c r="U81" s="3"/>
-      <c r="V81" s="3"/>
-    </row>
-    <row r="82" spans="1:22">
-      <c r="I82" s="3"/>
-      <c r="J82" s="3"/>
-      <c r="K82" s="3"/>
-      <c r="L82" s="3"/>
-      <c r="M82" s="3"/>
-      <c r="N82" s="3"/>
-      <c r="O82" s="3"/>
-      <c r="P82" s="3"/>
-      <c r="Q82" s="3"/>
-      <c r="R82" s="3"/>
-      <c r="S82" s="3"/>
-      <c r="T82" s="3"/>
-      <c r="U82" s="3"/>
-      <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="1:22">
-      <c r="F83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
-      <c r="K83" s="3"/>
-      <c r="L83" s="3"/>
-      <c r="M83" s="3"/>
-      <c r="N83" s="3"/>
-      <c r="O83" s="3"/>
-      <c r="P83" s="3"/>
-      <c r="Q83" s="3"/>
-      <c r="R83" s="3"/>
-      <c r="S83" s="3"/>
-      <c r="T83" s="3"/>
-      <c r="U83" s="3"/>
-      <c r="V83" s="3"/>
-    </row>
-    <row r="84" spans="1:22">
-      <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
-      <c r="K84" s="3"/>
-      <c r="L84" s="3"/>
-      <c r="M84" s="3"/>
-      <c r="N84" s="3"/>
-      <c r="O84" s="3"/>
-      <c r="P84" s="3"/>
-      <c r="Q84" s="3"/>
-      <c r="R84" s="3"/>
-      <c r="S84" s="3"/>
-      <c r="T84" s="3"/>
-      <c r="U84" s="3"/>
-      <c r="V84" s="3"/>
-    </row>
-    <row r="85" spans="1:22">
-      <c r="I85" s="3"/>
-      <c r="J85" s="3"/>
-      <c r="K85" s="3"/>
-      <c r="L85" s="3"/>
-      <c r="M85" s="3"/>
-      <c r="N85" s="3"/>
-      <c r="O85" s="3"/>
-      <c r="P85" s="3"/>
-      <c r="Q85" s="3"/>
-      <c r="R85" s="3"/>
-      <c r="S85" s="3"/>
-      <c r="T85" s="3"/>
-      <c r="U85" s="3"/>
-      <c r="V85" s="3"/>
-    </row>
-    <row r="86" spans="1:22">
-      <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
-      <c r="L86" s="3"/>
-      <c r="M86" s="3"/>
-      <c r="N86" s="3"/>
-      <c r="O86" s="3"/>
-      <c r="P86" s="3"/>
-      <c r="Q86" s="3"/>
-      <c r="R86" s="3"/>
-      <c r="S86" s="3"/>
-      <c r="T86" s="3"/>
-      <c r="U86" s="3"/>
-      <c r="V86" s="3"/>
-    </row>
-    <row r="87" spans="1:22">
-      <c r="J87" s="3"/>
-      <c r="K87" s="3"/>
-      <c r="L87" s="3"/>
-      <c r="M87" s="3"/>
-      <c r="N87" s="3"/>
-      <c r="O87" s="3"/>
-      <c r="P87" s="3"/>
-      <c r="Q87" s="4"/>
-      <c r="R87" s="3"/>
-      <c r="S87" s="3"/>
-      <c r="T87" s="3"/>
-      <c r="U87" s="3"/>
-    </row>
-    <row r="88" spans="1:22">
-      <c r="K88" s="3"/>
-      <c r="L88" s="3"/>
-      <c r="M88" s="3"/>
-      <c r="N88" s="3"/>
-      <c r="O88" s="3"/>
-      <c r="P88" s="3"/>
-      <c r="Q88" s="3"/>
-      <c r="R88" s="3"/>
-      <c r="S88" s="3"/>
-      <c r="T88" s="3"/>
-      <c r="U88" s="3"/>
-    </row>
-    <row r="89" spans="1:22">
-      <c r="K89" s="3"/>
-      <c r="L89" s="3"/>
-      <c r="M89" s="3"/>
-      <c r="N89" s="3"/>
-      <c r="O89" s="3"/>
-      <c r="P89" s="3"/>
-      <c r="Q89" s="3"/>
-      <c r="R89" s="3"/>
-      <c r="S89" s="3"/>
-      <c r="T89" s="3"/>
-      <c r="U89" s="3"/>
-    </row>
-    <row r="90" spans="1:22">
-      <c r="K90" s="3"/>
-      <c r="L90" s="3"/>
-      <c r="M90" s="3"/>
-      <c r="N90" s="3"/>
-      <c r="O90" s="3"/>
-      <c r="P90" s="3"/>
-      <c r="Q90" s="3"/>
-      <c r="R90" s="3"/>
-      <c r="S90" s="3"/>
-      <c r="T90" s="3"/>
-      <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="1:22">
-      <c r="K91" s="3"/>
-      <c r="L91" s="3"/>
-      <c r="M91" s="3"/>
-      <c r="N91" s="3"/>
-      <c r="O91" s="3"/>
-      <c r="P91" s="3"/>
-      <c r="Q91" s="3"/>
-      <c r="R91" s="3"/>
-      <c r="S91" s="3"/>
-      <c r="T91" s="3"/>
-      <c r="U91" s="3"/>
-    </row>
-    <row r="92" spans="1:22">
-      <c r="K92" s="3"/>
-      <c r="L92" s="3"/>
-      <c r="M92" s="3"/>
-      <c r="N92" s="3"/>
-      <c r="O92" s="3"/>
-      <c r="P92" s="3"/>
-      <c r="Q92" s="3"/>
-      <c r="R92" s="3"/>
-      <c r="S92" s="3"/>
-      <c r="T92" s="3"/>
-      <c r="U92" s="3"/>
-    </row>
-    <row r="93" spans="1:22">
-      <c r="K93" s="3"/>
-      <c r="L93" s="3"/>
-      <c r="M93" s="3"/>
-      <c r="N93" s="3"/>
-      <c r="O93" s="3"/>
-      <c r="P93" s="3"/>
-      <c r="Q93" s="3"/>
-      <c r="R93" s="3"/>
-      <c r="S93" s="3"/>
-      <c r="T93" s="3"/>
-      <c r="U93" s="3"/>
-    </row>
-    <row r="94" spans="1:22">
-      <c r="K94" s="3"/>
-      <c r="L94" s="3"/>
-      <c r="M94" s="3"/>
-      <c r="N94" s="3"/>
-      <c r="O94" s="3"/>
-      <c r="P94" s="3"/>
-      <c r="Q94" s="3"/>
-      <c r="R94" s="3"/>
-      <c r="S94" s="3"/>
-      <c r="T94" s="3"/>
-      <c r="U94" s="3"/>
-    </row>
-    <row r="95" spans="1:22">
-      <c r="K95" s="3"/>
-      <c r="L95" s="3"/>
-      <c r="M95" s="3"/>
-      <c r="N95" s="3"/>
-      <c r="O95" s="3"/>
-      <c r="P95" s="3"/>
-      <c r="Q95" s="3"/>
-      <c r="R95" s="3"/>
-      <c r="S95" s="3"/>
-      <c r="T95" s="3"/>
-      <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="1:22">
-      <c r="K96" s="3"/>
-      <c r="L96" s="3"/>
-      <c r="M96" s="3"/>
-      <c r="N96" s="3"/>
-      <c r="O96" s="3"/>
-      <c r="P96" s="3"/>
-      <c r="Q96" s="3"/>
-      <c r="R96" s="3"/>
-      <c r="S96" s="3"/>
-      <c r="T96" s="3"/>
-      <c r="U96" s="3"/>
-    </row>
-    <row r="97" spans="11:21">
-      <c r="K97" s="3"/>
-      <c r="L97" s="3"/>
-      <c r="M97" s="3"/>
-      <c r="N97" s="4"/>
-      <c r="O97" s="3"/>
-      <c r="P97" s="3"/>
-      <c r="Q97" s="3"/>
-      <c r="R97" s="3"/>
-      <c r="S97" s="3"/>
-      <c r="T97" s="3"/>
-      <c r="U97" s="3"/>
-    </row>
-    <row r="98" spans="11:21">
-      <c r="K98" s="3"/>
-      <c r="L98" s="3"/>
-      <c r="M98" s="3"/>
-      <c r="N98" s="3"/>
-      <c r="O98" s="3"/>
-      <c r="P98" s="3"/>
-      <c r="Q98" s="3"/>
-      <c r="R98" s="3"/>
-      <c r="S98" s="3"/>
-      <c r="T98" s="3"/>
-      <c r="U98" s="3"/>
-    </row>
-    <row r="99" spans="11:21">
-      <c r="K99" s="3"/>
-      <c r="L99" s="3"/>
-      <c r="M99" s="3"/>
-      <c r="N99" s="3"/>
-      <c r="O99" s="3"/>
-      <c r="P99" s="3"/>
-      <c r="Q99" s="3"/>
-      <c r="R99" s="3"/>
-      <c r="S99" s="3"/>
-      <c r="T99" s="3"/>
-      <c r="U99" s="3"/>
-    </row>
-    <row r="100" spans="11:21">
-      <c r="K100" s="3"/>
-      <c r="L100" s="3"/>
-      <c r="M100" s="3"/>
-      <c r="N100" s="3"/>
-      <c r="O100" s="3"/>
-      <c r="P100" s="3"/>
-      <c r="Q100" s="3"/>
-      <c r="R100" s="3"/>
-      <c r="S100" s="3"/>
-      <c r="T100" s="3"/>
-      <c r="U100" s="3"/>
-    </row>
-    <row r="101" spans="11:21">
-      <c r="K101" s="3"/>
-      <c r="L101" s="3"/>
-      <c r="M101" s="3"/>
-      <c r="N101" s="3"/>
-      <c r="O101" s="3"/>
-      <c r="P101" s="3"/>
-      <c r="Q101" s="3"/>
-      <c r="R101" s="3"/>
-      <c r="S101" s="3"/>
-      <c r="T101" s="3"/>
-      <c r="U101" s="3"/>
-    </row>
-    <row r="102" spans="11:21">
-      <c r="K102" s="3"/>
-      <c r="L102" s="3"/>
-      <c r="M102" s="3"/>
-      <c r="N102" s="3"/>
-      <c r="O102" s="3"/>
-      <c r="P102" s="3"/>
-      <c r="Q102" s="3"/>
-      <c r="R102" s="3"/>
-      <c r="S102" s="3"/>
-      <c r="T102" s="3"/>
-      <c r="U102" s="3"/>
-    </row>
-    <row r="103" spans="11:21">
-      <c r="K103" s="3"/>
-      <c r="L103" s="3"/>
-      <c r="M103" s="3"/>
-      <c r="N103" s="3"/>
-      <c r="O103" s="3"/>
-      <c r="P103" s="3"/>
-      <c r="Q103" s="3"/>
-      <c r="R103" s="3"/>
-      <c r="S103" s="3"/>
-      <c r="T103" s="3"/>
-      <c r="U103" s="3"/>
-    </row>
-    <row r="104" spans="11:21">
-      <c r="K104" s="3"/>
-      <c r="L104" s="3"/>
-      <c r="M104" s="3"/>
-      <c r="N104" s="3"/>
-      <c r="O104" s="3"/>
-      <c r="P104" s="3"/>
-      <c r="Q104" s="3"/>
-      <c r="R104" s="3"/>
-      <c r="S104" s="3"/>
-      <c r="T104" s="3"/>
-      <c r="U104" s="3"/>
-    </row>
-    <row r="105" spans="11:21">
-      <c r="K105" s="3"/>
-      <c r="L105" s="3"/>
-      <c r="M105" s="3"/>
-      <c r="N105" s="3"/>
-      <c r="O105" s="3"/>
-      <c r="P105" s="3"/>
-      <c r="Q105" s="3"/>
-      <c r="R105" s="3"/>
-      <c r="S105" s="3"/>
-      <c r="T105" s="3"/>
-      <c r="U105" s="3"/>
-    </row>
-    <row r="106" spans="11:21">
-      <c r="K106" s="3"/>
-      <c r="L106" s="3"/>
-      <c r="M106" s="3"/>
-      <c r="N106" s="3"/>
-      <c r="O106" s="3"/>
-      <c r="P106" s="3"/>
-      <c r="Q106" s="3"/>
-      <c r="R106" s="3"/>
-      <c r="S106" s="3"/>
-      <c r="T106" s="3"/>
-      <c r="U106" s="3"/>
-    </row>
-    <row r="107" spans="11:21">
-      <c r="K107" s="3"/>
-      <c r="L107" s="3"/>
-      <c r="M107" s="3"/>
-      <c r="N107" s="3"/>
-      <c r="O107" s="3"/>
-      <c r="P107" s="3"/>
-      <c r="Q107" s="3"/>
-      <c r="R107" s="3"/>
-      <c r="S107" s="3"/>
-      <c r="T107" s="3"/>
-      <c r="U107" s="3"/>
-    </row>
-    <row r="108" spans="11:21">
-      <c r="K108" s="3"/>
-      <c r="L108" s="3"/>
-      <c r="M108" s="3"/>
-      <c r="N108" s="3"/>
-      <c r="O108" s="3"/>
-      <c r="P108" s="3"/>
-      <c r="Q108" s="3"/>
-      <c r="R108" s="3"/>
-      <c r="S108" s="3"/>
-      <c r="T108" s="3"/>
-      <c r="U108" s="3"/>
-    </row>
-    <row r="109" spans="11:21">
-      <c r="K109" s="3"/>
-      <c r="L109" s="3"/>
-      <c r="M109" s="3"/>
-      <c r="N109" s="3"/>
-      <c r="O109" s="3"/>
-      <c r="P109" s="3"/>
-      <c r="Q109" s="3"/>
-      <c r="R109" s="3"/>
-      <c r="S109" s="3"/>
-      <c r="T109" s="3"/>
-      <c r="U109" s="3"/>
-    </row>
-    <row r="110" spans="11:21">
-      <c r="K110" s="3"/>
-      <c r="L110" s="3"/>
-      <c r="M110" s="3"/>
-      <c r="N110" s="3"/>
-      <c r="O110" s="3"/>
-      <c r="P110" s="3"/>
-      <c r="Q110" s="3"/>
-      <c r="R110" s="3"/>
-      <c r="S110" s="3"/>
-      <c r="T110" s="3"/>
-      <c r="U110" s="3"/>
-    </row>
-    <row r="111" spans="11:21">
-      <c r="K111" s="3"/>
-      <c r="L111" s="3"/>
-      <c r="M111" s="3"/>
-      <c r="N111" s="3"/>
-      <c r="O111" s="3"/>
-      <c r="P111" s="3"/>
-      <c r="Q111" s="3"/>
-      <c r="R111" s="3"/>
-      <c r="S111" s="3"/>
-      <c r="T111" s="3"/>
-      <c r="U111" s="3"/>
-    </row>
-    <row r="112" spans="11:21">
-      <c r="K112" s="3"/>
-      <c r="L112" s="3"/>
-      <c r="M112" s="3"/>
-      <c r="N112" s="3"/>
-      <c r="O112" s="3"/>
-      <c r="P112" s="3"/>
-      <c r="Q112" s="3"/>
-      <c r="R112" s="3"/>
-      <c r="S112" s="3"/>
-      <c r="T112" s="3"/>
-      <c r="U112" s="3"/>
-    </row>
-    <row r="113" spans="11:21">
-      <c r="K113" s="3"/>
-      <c r="L113" s="3"/>
-      <c r="M113" s="3"/>
-      <c r="N113" s="3"/>
-      <c r="O113" s="3"/>
-      <c r="P113" s="3"/>
-      <c r="Q113" s="3"/>
-      <c r="R113" s="3"/>
-      <c r="S113" s="3"/>
-      <c r="T113" s="3"/>
-      <c r="U113" s="3"/>
-    </row>
-    <row r="114" spans="11:21">
-      <c r="K114" s="3"/>
-      <c r="L114" s="3"/>
-      <c r="M114" s="3"/>
-      <c r="N114" s="3"/>
-      <c r="O114" s="3"/>
-      <c r="P114" s="3"/>
-      <c r="Q114" s="3"/>
-      <c r="R114" s="3"/>
-      <c r="S114" s="3"/>
-      <c r="T114" s="3"/>
-      <c r="U114" s="3"/>
-    </row>
-    <row r="115" spans="11:21">
-      <c r="K115" s="3"/>
-      <c r="L115" s="3"/>
-      <c r="M115" s="3"/>
-      <c r="N115" s="3"/>
-      <c r="O115" s="3"/>
-      <c r="P115" s="3"/>
-      <c r="Q115" s="3"/>
-      <c r="R115" s="3"/>
-      <c r="S115" s="3"/>
-      <c r="T115" s="3"/>
-      <c r="U115" s="3"/>
-    </row>
-    <row r="116" spans="11:21">
-      <c r="K116" s="3"/>
-      <c r="L116" s="3"/>
-      <c r="M116" s="3"/>
-      <c r="N116" s="3"/>
-      <c r="O116" s="3"/>
-      <c r="P116" s="3"/>
-      <c r="Q116" s="3"/>
-      <c r="R116" s="3"/>
-      <c r="S116" s="3"/>
-      <c r="T116" s="3"/>
-      <c r="U116" s="3"/>
+    </row>
+    <row r="87" spans="1:17">
+      <c r="Q87" s="2"/>
+    </row>
+    <row r="97" spans="14:14">
+      <c r="N97" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Addsum.xlsx
+++ b/Addsum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mxa1132-admin\OneDrive\Documents\life-history-traits-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5E52EA-2359-4479-8EBD-E25CAA26D03E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D803C692-7627-4280-BCEF-B8B79628766D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F8041E9A-3BEB-47D5-9BC9-9BC8F2897E52}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="23">
   <si>
     <t>N</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>Genotypes</t>
-  </si>
-  <si>
-    <t>A+B</t>
   </si>
   <si>
     <t>MP_PFOANULL</t>
@@ -473,7 +470,7 @@
   <dimension ref="A1:V97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -493,7 +490,7 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>14</v>
@@ -506,9 +503,6 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
-      <c r="R1" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" t="s">
@@ -518,7 +512,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2">
         <v>-0.77951889725773604</v>
@@ -538,7 +532,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3">
         <v>0.43096000000000001</v>
@@ -558,7 +552,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4">
         <v>-1.71065036230637</v>
@@ -578,7 +572,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5">
         <v>-1.8339754945379301</v>
@@ -598,7 +592,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6">
         <v>-1.7939665317603799</v>
@@ -618,7 +612,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7">
         <v>-1.8491244497330701</v>
@@ -638,7 +632,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8">
         <v>1.57453805842831</v>
@@ -658,7 +652,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9">
         <v>-1</v>
@@ -730,7 +724,7 @@
         <v>4</v>
       </c>
       <c r="R12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1483,7 +1477,7 @@
         <v>2</v>
       </c>
       <c r="C50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D50">
         <v>-6.0163371332020502E-2</v>
@@ -1503,7 +1497,7 @@
         <v>2</v>
       </c>
       <c r="C51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D51">
         <v>1.47902009988315</v>
@@ -1523,7 +1517,7 @@
         <v>4</v>
       </c>
       <c r="C52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D52">
         <v>-1.8218520592452201</v>
@@ -1543,7 +1537,7 @@
         <v>4</v>
       </c>
       <c r="C53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D53">
         <v>-1.6668668641648701</v>
@@ -1563,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="C54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D54">
         <v>-1.8076353111554599</v>
@@ -1583,7 +1577,7 @@
         <v>5</v>
       </c>
       <c r="C55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D55">
         <v>-1.88070147483767</v>
@@ -1603,7 +1597,7 @@
         <v>6</v>
       </c>
       <c r="C56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D56">
         <v>1.30132452204613</v>
@@ -1623,7 +1617,7 @@
         <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D57">
         <v>1.2404152083173901</v>
@@ -1643,7 +1637,7 @@
         <v>2</v>
       </c>
       <c r="C58" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D58">
         <v>0.96091967150823698</v>
@@ -1663,7 +1657,7 @@
         <v>2</v>
       </c>
       <c r="C59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D59">
         <v>1.4937996915758001</v>
@@ -1684,7 +1678,7 @@
         <v>4</v>
       </c>
       <c r="C60" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D60">
         <v>-1.8769540238800699</v>
@@ -1704,7 +1698,7 @@
         <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D61">
         <v>-1.98578757963332</v>
@@ -1724,7 +1718,7 @@
         <v>5</v>
       </c>
       <c r="C62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D62">
         <v>-1.8773675691010301</v>
@@ -1744,7 +1738,7 @@
         <v>5</v>
       </c>
       <c r="C63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D63">
         <v>-1.49127361462202</v>
@@ -1764,7 +1758,7 @@
         <v>6</v>
       </c>
       <c r="C64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D64">
         <v>1.3653741125068199</v>
@@ -1784,7 +1778,7 @@
         <v>6</v>
       </c>
       <c r="C65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D65">
         <v>1.6961132485564501</v>
@@ -1804,7 +1798,7 @@
         <v>2</v>
       </c>
       <c r="C66" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D66">
         <v>0.70599906362170295</v>
@@ -1824,7 +1818,7 @@
         <v>2</v>
       </c>
       <c r="C67" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D67">
         <v>1.48582169786594</v>
@@ -1844,7 +1838,7 @@
         <v>4</v>
       </c>
       <c r="C68" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D68">
         <v>-0.19410920384077099</v>
@@ -1864,7 +1858,7 @@
         <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D69">
         <v>-0.19444911398384199</v>
@@ -1884,7 +1878,7 @@
         <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D70">
         <v>-1.67557298169694</v>
@@ -1904,7 +1898,7 @@
         <v>5</v>
       </c>
       <c r="C71" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D71">
         <v>-2.9928506136409001</v>
@@ -1924,7 +1918,7 @@
         <v>6</v>
       </c>
       <c r="C72" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D72">
         <v>1.5553407111384301</v>
@@ -1944,7 +1938,7 @@
         <v>6</v>
       </c>
       <c r="C73" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D73">
         <v>1.1055416146785799</v>
@@ -1964,7 +1958,7 @@
         <v>2</v>
       </c>
       <c r="C74" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D74">
         <v>0.61295164299375104</v>
@@ -1984,7 +1978,7 @@
         <v>2</v>
       </c>
       <c r="C75" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D75">
         <v>1.50093245428722</v>
@@ -2004,7 +1998,7 @@
         <v>4</v>
       </c>
       <c r="C76" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D76">
         <v>-1.83879831369485</v>
@@ -2024,7 +2018,7 @@
         <v>4</v>
       </c>
       <c r="C77" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D77">
         <v>-2.0064042517854102</v>
@@ -2044,7 +2038,7 @@
         <v>5</v>
       </c>
       <c r="C78" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D78">
         <v>-1.8136178383286801</v>
@@ -2064,7 +2058,7 @@
         <v>5</v>
       </c>
       <c r="C79" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D79">
         <v>-1.78236662117749</v>
@@ -2084,7 +2078,7 @@
         <v>6</v>
       </c>
       <c r="C80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D80">
         <v>1.4798268130360901</v>
@@ -2104,7 +2098,7 @@
         <v>6</v>
       </c>
       <c r="C81" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D81">
         <v>1.3063063389966501</v>

--- a/Addsum.xlsx
+++ b/Addsum.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mxa1132-admin\OneDrive\Documents\life-history-traits-analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b3bbfbef5e37dc7/Documents/R_PHD_analysis/Multigenerational_analysis/life-history-traits-analysis/Tai/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D803C692-7627-4280-BCEF-B8B79628766D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{5E618822-A9D6-49BE-AD28-0DCF4DEFA31D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F8041E9A-3BEB-47D5-9BC9-9BC8F2897E52}"/>
   </bookViews>
@@ -37,7 +37,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="24">
+  <si>
+    <t>mean</t>
+  </si>
   <si>
     <t>N</t>
   </si>
@@ -87,6 +90,9 @@
     <t>Genotypes</t>
   </si>
   <si>
+    <t>A+B</t>
+  </si>
+  <si>
     <t>MP_PFOANULL</t>
   </si>
   <si>
@@ -103,9 +109,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>SMD</t>
   </si>
 </sst>
 </file>
@@ -147,10 +150,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -467,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B149D2EE-305E-4EF7-8D1A-C400C3127869}">
-  <dimension ref="A1:V97"/>
+  <dimension ref="A1:AA116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+      <selection activeCell="S84" sqref="S84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -479,40 +486,43 @@
     <col min="3" max="3" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:27">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2">
         <v>-0.77951889725773604</v>
@@ -524,15 +534,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:27">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <v>0.43096000000000001</v>
@@ -544,15 +554,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:27">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4">
         <v>-1.71065036230637</v>
@@ -564,15 +574,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:27">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D5">
         <v>-1.8339754945379301</v>
@@ -584,15 +594,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:27">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6">
         <v>-1.7939665317603799</v>
@@ -604,15 +614,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:27">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D7">
         <v>-1.8491244497330701</v>
@@ -624,15 +634,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:27">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D8">
         <v>1.57453805842831</v>
@@ -644,15 +654,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:27">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D9">
         <v>-1</v>
@@ -664,15 +674,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:27">
       <c r="A10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10">
         <v>1.4031214775804499</v>
@@ -684,15 +694,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:27">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D11">
         <v>1.4624941965560601</v>
@@ -703,16 +713,28 @@
       <c r="F11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D12">
         <v>-0.39426</v>
@@ -723,19 +745,30 @@
       <c r="F12">
         <v>4</v>
       </c>
-      <c r="R12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+    </row>
+    <row r="13" spans="1:27">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13">
         <v>-2.20839675740734</v>
@@ -746,16 +779,28 @@
       <c r="F13">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+    </row>
+    <row r="14" spans="1:27">
       <c r="A14" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D14">
         <v>-1.8121023614424301</v>
@@ -766,16 +811,28 @@
       <c r="F14">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D15">
         <v>-43</v>
@@ -786,16 +843,28 @@
       <c r="F15">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+    </row>
+    <row r="16" spans="1:27">
       <c r="A16" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D16">
         <v>-2.0801848365168198</v>
@@ -806,17 +875,32 @@
       <c r="F16">
         <v>4</v>
       </c>
-      <c r="V16" s="2"/>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="1:27">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D17">
         <v>2.2360679549995801</v>
@@ -827,16 +911,31 @@
       <c r="F17">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+    </row>
+    <row r="18" spans="1:27">
       <c r="A18" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18">
         <v>0.39009471499680098</v>
@@ -848,16 +947,21 @@
         <v>4</v>
       </c>
       <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+    </row>
+    <row r="19" spans="1:27">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19">
         <v>1.44913814923804</v>
@@ -868,16 +972,21 @@
       <c r="F19">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="1:27">
       <c r="A20" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20">
         <v>-1.83020096454151</v>
@@ -888,16 +997,21 @@
       <c r="F20">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+    </row>
+    <row r="21" spans="1:27">
       <c r="A21" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21">
         <v>-1.8323759021947199</v>
@@ -908,16 +1022,22 @@
       <c r="F21">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+    </row>
+    <row r="22" spans="1:27">
       <c r="A22" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22">
         <v>-1.84438835917261</v>
@@ -928,16 +1048,22 @@
       <c r="F22">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+    </row>
+    <row r="23" spans="1:27">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23">
         <v>-1.7844199006823001</v>
@@ -948,16 +1074,19 @@
       <c r="F23">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+    </row>
+    <row r="24" spans="1:27">
       <c r="A24" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24">
         <v>1.62018534920394</v>
@@ -968,16 +1097,19 @@
       <c r="F24">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+    </row>
+    <row r="25" spans="1:27">
       <c r="A25" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25">
         <v>1.6461095024963199</v>
@@ -988,16 +1120,19 @@
       <c r="F25">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+    </row>
+    <row r="26" spans="1:27">
       <c r="A26" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1008,16 +1143,19 @@
       <c r="F26">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+    </row>
+    <row r="27" spans="1:27">
       <c r="A27" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27">
         <v>1.5202791091023</v>
@@ -1028,16 +1166,19 @@
       <c r="F27">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+    </row>
+    <row r="28" spans="1:27">
       <c r="A28" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28">
         <v>-1.8534550372446099</v>
@@ -1048,16 +1189,29 @@
       <c r="F28">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+    </row>
+    <row r="29" spans="1:27">
       <c r="A29" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29">
         <v>-1.8436248603457099</v>
@@ -1068,16 +1222,30 @@
       <c r="F29">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+    </row>
+    <row r="30" spans="1:27">
       <c r="A30" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30">
         <v>-1.75027838638335</v>
@@ -1088,16 +1256,30 @@
       <c r="F30">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+    </row>
+    <row r="31" spans="1:27">
       <c r="A31" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31">
         <v>-1.7432821485482499</v>
@@ -1108,16 +1290,30 @@
       <c r="F31">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+    </row>
+    <row r="32" spans="1:27">
       <c r="A32" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32">
         <v>1.4303472883216</v>
@@ -1128,16 +1324,30 @@
       <c r="F32">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="3"/>
+    </row>
+    <row r="33" spans="1:27">
       <c r="A33" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33">
         <v>0.67684203914637697</v>
@@ -1148,16 +1358,30 @@
       <c r="F33">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+    </row>
+    <row r="34" spans="1:27">
       <c r="A34" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D34">
         <v>-0.93541519338773704</v>
@@ -1168,16 +1392,30 @@
       <c r="F34">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+    </row>
+    <row r="35" spans="1:27">
       <c r="A35" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D35">
         <v>1.26131271372943</v>
@@ -1188,16 +1426,30 @@
       <c r="F35">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3"/>
+    </row>
+    <row r="36" spans="1:27">
       <c r="A36" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D36">
         <v>-1.8423067974717899</v>
@@ -1208,16 +1460,30 @@
       <c r="F36">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+      <c r="AA36" s="3"/>
+    </row>
+    <row r="37" spans="1:27">
       <c r="A37" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B37" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D37">
         <v>-1.58788823833691</v>
@@ -1228,16 +1494,30 @@
       <c r="F37">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+      <c r="AA37" s="3"/>
+    </row>
+    <row r="38" spans="1:27">
       <c r="A38" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D38">
         <v>-1.84163732324531</v>
@@ -1248,16 +1528,30 @@
       <c r="F38">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
+      <c r="AA38" s="3"/>
+    </row>
+    <row r="39" spans="1:27">
       <c r="A39" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D39">
         <v>-1.73889843120217</v>
@@ -1268,16 +1562,30 @@
       <c r="F39">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="1:27">
       <c r="A40" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D40">
         <v>1.84637245665271</v>
@@ -1288,16 +1596,30 @@
       <c r="F40">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="1:27">
       <c r="A41" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D41">
         <v>1.00803199896777</v>
@@ -1308,16 +1630,20 @@
       <c r="F41">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3"/>
+      <c r="AA41" s="3"/>
+    </row>
+    <row r="42" spans="1:27">
       <c r="A42" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D42">
         <v>1.01881887444636</v>
@@ -1328,16 +1654,22 @@
       <c r="F42">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="3"/>
+      <c r="AA42" s="3"/>
+    </row>
+    <row r="43" spans="1:27">
       <c r="A43" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B43" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D43">
         <v>1.6624263056110999</v>
@@ -1348,16 +1680,22 @@
       <c r="F43">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3"/>
+      <c r="AA43" s="3"/>
+    </row>
+    <row r="44" spans="1:27">
       <c r="A44" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D44">
         <v>-2.5059642147117298</v>
@@ -1368,16 +1706,22 @@
       <c r="F44">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="X44" s="3"/>
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="3"/>
+      <c r="AA44" s="3"/>
+    </row>
+    <row r="45" spans="1:27">
       <c r="A45" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D45">
         <v>-1.7986239696802599</v>
@@ -1388,16 +1732,22 @@
       <c r="F45">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="X45" s="3"/>
+      <c r="Y45" s="3"/>
+      <c r="Z45" s="3"/>
+      <c r="AA45" s="3"/>
+    </row>
+    <row r="46" spans="1:27">
       <c r="A46" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D46">
         <v>-1.8206753755701399</v>
@@ -1408,16 +1758,22 @@
       <c r="F46">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="3"/>
+      <c r="AA46" s="3"/>
+    </row>
+    <row r="47" spans="1:27">
       <c r="A47" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D47">
         <v>-1.7586572429591001</v>
@@ -1428,16 +1784,22 @@
       <c r="F47">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="X47" s="3"/>
+      <c r="Y47" s="3"/>
+      <c r="Z47" s="3"/>
+      <c r="AA47" s="3"/>
+    </row>
+    <row r="48" spans="1:27">
       <c r="A48" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D48">
         <v>-1.36930528752672</v>
@@ -1448,16 +1810,21 @@
       <c r="F48">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:16">
+      <c r="J48" s="3"/>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="3"/>
+      <c r="AA48" s="3"/>
+    </row>
+    <row r="49" spans="1:27">
       <c r="A49" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D49">
         <v>0.67067040230174102</v>
@@ -1468,16 +1835,20 @@
       <c r="F49">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:16">
+      <c r="X49" s="3"/>
+      <c r="Y49" s="3"/>
+      <c r="Z49" s="3"/>
+      <c r="AA49" s="3"/>
+    </row>
+    <row r="50" spans="1:27">
       <c r="A50" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C50" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D50">
         <v>-6.0163371332020502E-2</v>
@@ -1488,16 +1859,20 @@
       <c r="F50">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="1:16">
+      <c r="X50" s="3"/>
+      <c r="Y50" s="3"/>
+      <c r="Z50" s="3"/>
+      <c r="AA50" s="3"/>
+    </row>
+    <row r="51" spans="1:27">
       <c r="A51" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B51" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C51" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D51">
         <v>1.47902009988315</v>
@@ -1508,16 +1883,18 @@
       <c r="F51">
         <v>4</v>
       </c>
-    </row>
-    <row r="52" spans="1:16">
+      <c r="X51" s="3"/>
+      <c r="Y51" s="3"/>
+    </row>
+    <row r="52" spans="1:27">
       <c r="A52" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D52">
         <v>-1.8218520592452201</v>
@@ -1528,16 +1905,18 @@
       <c r="F52">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="1:16">
+      <c r="X52" s="3"/>
+      <c r="Y52" s="3"/>
+    </row>
+    <row r="53" spans="1:27">
       <c r="A53" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B53" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D53">
         <v>-1.6668668641648701</v>
@@ -1548,16 +1927,18 @@
       <c r="F53">
         <v>4</v>
       </c>
-    </row>
-    <row r="54" spans="1:16">
+      <c r="X53" s="3"/>
+      <c r="Y53" s="3"/>
+    </row>
+    <row r="54" spans="1:27">
       <c r="A54" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D54">
         <v>-1.8076353111554599</v>
@@ -1568,16 +1949,29 @@
       <c r="F54">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="1:16">
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3"/>
+      <c r="S54" s="3"/>
+      <c r="T54" s="3"/>
+      <c r="X54" s="3"/>
+      <c r="Y54" s="3"/>
+    </row>
+    <row r="55" spans="1:27">
       <c r="A55" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B55" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D55">
         <v>-1.88070147483767</v>
@@ -1588,16 +1982,32 @@
       <c r="F55">
         <v>4</v>
       </c>
-    </row>
-    <row r="56" spans="1:16">
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="1:27">
       <c r="A56" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D56">
         <v>1.30132452204613</v>
@@ -1608,16 +2018,32 @@
       <c r="F56">
         <v>4</v>
       </c>
-    </row>
-    <row r="57" spans="1:16">
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="1:27">
       <c r="A57" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D57">
         <v>1.2404152083173901</v>
@@ -1628,16 +2054,32 @@
       <c r="F57">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="1:16">
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="3"/>
+      <c r="S57" s="3"/>
+      <c r="T57" s="3"/>
+      <c r="U57" s="3"/>
+      <c r="V57" s="3"/>
+      <c r="W57" s="3"/>
+    </row>
+    <row r="58" spans="1:27">
       <c r="A58" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C58" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D58">
         <v>0.96091967150823698</v>
@@ -1648,16 +2090,32 @@
       <c r="F58">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="1:16">
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3"/>
+      <c r="S58" s="3"/>
+      <c r="T58" s="3"/>
+      <c r="U58" s="3"/>
+      <c r="V58" s="3"/>
+      <c r="W58" s="3"/>
+    </row>
+    <row r="59" spans="1:27">
       <c r="A59" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B59" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C59" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D59">
         <v>1.4937996915758001</v>
@@ -1668,17 +2126,32 @@
       <c r="F59">
         <v>4</v>
       </c>
-      <c r="P59" s="2"/>
-    </row>
-    <row r="60" spans="1:16">
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="4"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3"/>
+      <c r="S59" s="3"/>
+      <c r="T59" s="3"/>
+      <c r="U59" s="3"/>
+      <c r="V59" s="3"/>
+      <c r="W59" s="3"/>
+    </row>
+    <row r="60" spans="1:27">
       <c r="A60" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C60" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D60">
         <v>-1.8769540238800699</v>
@@ -1689,16 +2162,32 @@
       <c r="F60">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="1:16">
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3"/>
+      <c r="S60" s="3"/>
+      <c r="T60" s="3"/>
+      <c r="U60" s="3"/>
+      <c r="V60" s="3"/>
+      <c r="W60" s="3"/>
+    </row>
+    <row r="61" spans="1:27">
       <c r="A61" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B61" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C61" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D61">
         <v>-1.98578757963332</v>
@@ -1709,16 +2198,32 @@
       <c r="F61">
         <v>4</v>
       </c>
-    </row>
-    <row r="62" spans="1:16">
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+      <c r="O61" s="3"/>
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3"/>
+      <c r="R61" s="3"/>
+      <c r="S61" s="3"/>
+      <c r="T61" s="3"/>
+      <c r="U61" s="3"/>
+      <c r="V61" s="3"/>
+      <c r="W61" s="3"/>
+    </row>
+    <row r="62" spans="1:27">
       <c r="A62" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C62" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D62">
         <v>-1.8773675691010301</v>
@@ -1729,16 +2234,32 @@
       <c r="F62">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="1:16">
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3"/>
+      <c r="S62" s="3"/>
+      <c r="T62" s="3"/>
+      <c r="U62" s="3"/>
+      <c r="V62" s="3"/>
+      <c r="W62" s="3"/>
+    </row>
+    <row r="63" spans="1:27">
       <c r="A63" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C63" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D63">
         <v>-1.49127361462202</v>
@@ -1749,16 +2270,32 @@
       <c r="F63">
         <v>4</v>
       </c>
-    </row>
-    <row r="64" spans="1:16">
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3"/>
+      <c r="R63" s="3"/>
+      <c r="S63" s="3"/>
+      <c r="T63" s="3"/>
+      <c r="U63" s="3"/>
+      <c r="V63" s="3"/>
+      <c r="W63" s="3"/>
+    </row>
+    <row r="64" spans="1:27">
       <c r="A64" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D64">
         <v>1.3653741125068199</v>
@@ -1769,16 +2306,32 @@
       <c r="F64">
         <v>4</v>
       </c>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+      <c r="M64" s="3"/>
+      <c r="N64" s="3"/>
+      <c r="O64" s="3"/>
+      <c r="P64" s="3"/>
+      <c r="Q64" s="3"/>
+      <c r="R64" s="3"/>
+      <c r="S64" s="3"/>
+      <c r="T64" s="3"/>
+      <c r="U64" s="3"/>
+      <c r="V64" s="3"/>
+      <c r="W64" s="3"/>
+    </row>
+    <row r="65" spans="1:25">
       <c r="A65" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D65">
         <v>1.6961132485564501</v>
@@ -1789,16 +2342,32 @@
       <c r="F65">
         <v>4</v>
       </c>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
+      <c r="O65" s="3"/>
+      <c r="P65" s="3"/>
+      <c r="Q65" s="3"/>
+      <c r="R65" s="3"/>
+      <c r="S65" s="3"/>
+      <c r="T65" s="3"/>
+      <c r="U65" s="3"/>
+      <c r="V65" s="3"/>
+      <c r="W65" s="3"/>
+    </row>
+    <row r="66" spans="1:25">
       <c r="A66" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C66" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D66">
         <v>0.70599906362170295</v>
@@ -1809,16 +2378,29 @@
       <c r="F66">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="1:6">
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
+      <c r="O66" s="3"/>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
+      <c r="R66" s="3"/>
+      <c r="S66" s="3"/>
+      <c r="T66" s="3"/>
+      <c r="U66" s="3"/>
+    </row>
+    <row r="67" spans="1:25">
       <c r="A67" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B67" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C67" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D67">
         <v>1.48582169786594</v>
@@ -1829,16 +2411,29 @@
       <c r="F67">
         <v>4</v>
       </c>
-    </row>
-    <row r="68" spans="1:6">
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="1:25">
       <c r="A68" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C68" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D68">
         <v>-0.19410920384077099</v>
@@ -1849,16 +2444,29 @@
       <c r="F68">
         <v>4</v>
       </c>
-    </row>
-    <row r="69" spans="1:6">
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3"/>
+      <c r="O68" s="3"/>
+      <c r="P68" s="3"/>
+      <c r="Q68" s="3"/>
+      <c r="R68" s="3"/>
+      <c r="S68" s="3"/>
+      <c r="T68" s="3"/>
+      <c r="U68" s="3"/>
+    </row>
+    <row r="69" spans="1:25">
       <c r="A69" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B69" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D69">
         <v>-0.19444911398384199</v>
@@ -1869,16 +2477,29 @@
       <c r="F69">
         <v>4</v>
       </c>
-    </row>
-    <row r="70" spans="1:6">
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
+      <c r="O69" s="3"/>
+      <c r="P69" s="3"/>
+      <c r="Q69" s="3"/>
+      <c r="R69" s="3"/>
+      <c r="S69" s="3"/>
+      <c r="T69" s="3"/>
+      <c r="U69" s="3"/>
+    </row>
+    <row r="70" spans="1:25">
       <c r="A70" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C70" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D70">
         <v>-1.67557298169694</v>
@@ -1889,16 +2510,31 @@
       <c r="F70">
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3"/>
+      <c r="O70" s="3"/>
+      <c r="P70" s="3"/>
+      <c r="Q70" s="3"/>
+      <c r="R70" s="3"/>
+      <c r="S70" s="3"/>
+      <c r="T70" s="3"/>
+      <c r="U70" s="3"/>
+      <c r="Y70" s="3"/>
+    </row>
+    <row r="71" spans="1:25">
       <c r="A71" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C71" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D71">
         <v>-2.9928506136409001</v>
@@ -1909,16 +2545,31 @@
       <c r="F71">
         <v>4</v>
       </c>
-    </row>
-    <row r="72" spans="1:6">
+      <c r="G71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3"/>
+      <c r="O71" s="3"/>
+      <c r="P71" s="3"/>
+      <c r="Q71" s="3"/>
+      <c r="R71" s="3"/>
+      <c r="S71" s="3"/>
+      <c r="T71" s="3"/>
+      <c r="U71" s="3"/>
+      <c r="Y71" s="3"/>
+    </row>
+    <row r="72" spans="1:25">
       <c r="A72" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D72">
         <v>1.5553407111384301</v>
@@ -1929,16 +2580,31 @@
       <c r="F72">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="G72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3"/>
+      <c r="O72" s="3"/>
+      <c r="P72" s="3"/>
+      <c r="Q72" s="3"/>
+      <c r="R72" s="3"/>
+      <c r="S72" s="3"/>
+      <c r="T72" s="3"/>
+      <c r="U72" s="3"/>
+      <c r="Y72" s="3"/>
+    </row>
+    <row r="73" spans="1:25">
       <c r="A73" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D73">
         <v>1.1055416146785799</v>
@@ -1949,16 +2615,30 @@
       <c r="F73">
         <v>4</v>
       </c>
-    </row>
-    <row r="74" spans="1:6">
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3"/>
+      <c r="O73" s="3"/>
+      <c r="P73" s="3"/>
+      <c r="Q73" s="3"/>
+      <c r="R73" s="3"/>
+      <c r="S73" s="3"/>
+      <c r="T73" s="3"/>
+      <c r="U73" s="3"/>
+      <c r="Y73" s="3"/>
+    </row>
+    <row r="74" spans="1:25">
       <c r="A74" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B74" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C74" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D74">
         <v>0.61295164299375104</v>
@@ -1969,16 +2649,30 @@
       <c r="F74">
         <v>4</v>
       </c>
-    </row>
-    <row r="75" spans="1:6">
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="3"/>
+      <c r="O74" s="3"/>
+      <c r="P74" s="3"/>
+      <c r="Q74" s="3"/>
+      <c r="R74" s="3"/>
+      <c r="S74" s="3"/>
+      <c r="T74" s="3"/>
+      <c r="U74" s="3"/>
+      <c r="Y74" s="3"/>
+    </row>
+    <row r="75" spans="1:25">
       <c r="A75" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B75" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C75" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D75">
         <v>1.50093245428722</v>
@@ -1989,16 +2683,31 @@
       <c r="F75">
         <v>4</v>
       </c>
-    </row>
-    <row r="76" spans="1:6">
+      <c r="G75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+      <c r="M75" s="3"/>
+      <c r="N75" s="3"/>
+      <c r="O75" s="3"/>
+      <c r="P75" s="3"/>
+      <c r="Q75" s="3"/>
+      <c r="R75" s="3"/>
+      <c r="S75" s="3"/>
+      <c r="T75" s="3"/>
+      <c r="U75" s="3"/>
+      <c r="Y75" s="3"/>
+    </row>
+    <row r="76" spans="1:25">
       <c r="A76" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B76" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C76" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D76">
         <v>-1.83879831369485</v>
@@ -2009,16 +2718,30 @@
       <c r="F76">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="1:6">
+      <c r="G76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
+      <c r="M76" s="3"/>
+      <c r="N76" s="3"/>
+      <c r="O76" s="3"/>
+      <c r="P76" s="3"/>
+      <c r="Q76" s="3"/>
+      <c r="R76" s="3"/>
+      <c r="S76" s="3"/>
+      <c r="T76" s="3"/>
+      <c r="U76" s="3"/>
+    </row>
+    <row r="77" spans="1:25">
       <c r="A77" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B77" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C77" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D77">
         <v>-2.0064042517854102</v>
@@ -2029,16 +2752,29 @@
       <c r="F77">
         <v>4</v>
       </c>
-    </row>
-    <row r="78" spans="1:6">
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
+      <c r="M77" s="3"/>
+      <c r="N77" s="3"/>
+      <c r="O77" s="3"/>
+      <c r="P77" s="3"/>
+      <c r="Q77" s="3"/>
+      <c r="R77" s="3"/>
+      <c r="S77" s="3"/>
+      <c r="T77" s="3"/>
+      <c r="U77" s="3"/>
+    </row>
+    <row r="78" spans="1:25">
       <c r="A78" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C78" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D78">
         <v>-1.8136178383286801</v>
@@ -2049,16 +2785,29 @@
       <c r="F78">
         <v>4</v>
       </c>
-    </row>
-    <row r="79" spans="1:6">
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3"/>
+      <c r="M78" s="3"/>
+      <c r="N78" s="3"/>
+      <c r="O78" s="3"/>
+      <c r="P78" s="3"/>
+      <c r="Q78" s="3"/>
+      <c r="R78" s="3"/>
+      <c r="S78" s="3"/>
+      <c r="T78" s="3"/>
+      <c r="U78" s="3"/>
+    </row>
+    <row r="79" spans="1:25">
       <c r="A79" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C79" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D79">
         <v>-1.78236662117749</v>
@@ -2069,16 +2818,29 @@
       <c r="F79">
         <v>4</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="3"/>
+      <c r="N79" s="3"/>
+      <c r="O79" s="3"/>
+      <c r="P79" s="3"/>
+      <c r="Q79" s="3"/>
+      <c r="R79" s="3"/>
+      <c r="S79" s="3"/>
+      <c r="T79" s="3"/>
+      <c r="U79" s="3"/>
+    </row>
+    <row r="80" spans="1:25">
       <c r="A80" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B80" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D80">
         <v>1.4798268130360901</v>
@@ -2089,16 +2851,30 @@
       <c r="F80">
         <v>4</v>
       </c>
-    </row>
-    <row r="81" spans="1:17">
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
+      <c r="M80" s="3"/>
+      <c r="N80" s="3"/>
+      <c r="O80" s="3"/>
+      <c r="P80" s="3"/>
+      <c r="Q80" s="3"/>
+      <c r="R80" s="3"/>
+      <c r="S80" s="3"/>
+      <c r="T80" s="3"/>
+      <c r="U80" s="3"/>
+    </row>
+    <row r="81" spans="1:22">
       <c r="A81" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D81">
         <v>1.3063063389966501</v>
@@ -2109,12 +2885,493 @@
       <c r="F81">
         <v>4</v>
       </c>
-    </row>
-    <row r="87" spans="1:17">
-      <c r="Q87" s="2"/>
-    </row>
-    <row r="97" spans="14:14">
-      <c r="N97" s="2"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
+      <c r="M81" s="3"/>
+      <c r="N81" s="3"/>
+      <c r="O81" s="3"/>
+      <c r="P81" s="3"/>
+      <c r="Q81" s="3"/>
+      <c r="R81" s="3"/>
+      <c r="S81" s="3"/>
+      <c r="T81" s="3"/>
+      <c r="U81" s="3"/>
+      <c r="V81" s="3"/>
+    </row>
+    <row r="82" spans="1:22">
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="1:22">
+      <c r="F83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="3"/>
+      <c r="O83" s="3"/>
+      <c r="P83" s="3"/>
+      <c r="Q83" s="3"/>
+      <c r="R83" s="3"/>
+      <c r="S83" s="3"/>
+      <c r="T83" s="3"/>
+      <c r="U83" s="3"/>
+      <c r="V83" s="3"/>
+    </row>
+    <row r="84" spans="1:22">
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
+      <c r="M84" s="3"/>
+      <c r="N84" s="3"/>
+      <c r="O84" s="3"/>
+      <c r="P84" s="3"/>
+      <c r="Q84" s="3"/>
+      <c r="R84" s="3"/>
+      <c r="S84" s="3"/>
+      <c r="T84" s="3"/>
+      <c r="U84" s="3"/>
+      <c r="V84" s="3"/>
+    </row>
+    <row r="85" spans="1:22">
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="3"/>
+      <c r="M85" s="3"/>
+      <c r="N85" s="3"/>
+      <c r="O85" s="3"/>
+      <c r="P85" s="3"/>
+      <c r="Q85" s="3"/>
+      <c r="R85" s="3"/>
+      <c r="S85" s="3"/>
+      <c r="T85" s="3"/>
+      <c r="U85" s="3"/>
+      <c r="V85" s="3"/>
+    </row>
+    <row r="86" spans="1:22">
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="3"/>
+      <c r="M86" s="3"/>
+      <c r="N86" s="3"/>
+      <c r="O86" s="3"/>
+      <c r="P86" s="3"/>
+      <c r="Q86" s="3"/>
+      <c r="R86" s="3"/>
+      <c r="S86" s="3"/>
+      <c r="T86" s="3"/>
+      <c r="U86" s="3"/>
+      <c r="V86" s="3"/>
+    </row>
+    <row r="87" spans="1:22">
+      <c r="J87" s="3"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="3"/>
+      <c r="M87" s="3"/>
+      <c r="N87" s="3"/>
+      <c r="O87" s="3"/>
+      <c r="P87" s="3"/>
+      <c r="Q87" s="4"/>
+      <c r="R87" s="3"/>
+      <c r="S87" s="3"/>
+      <c r="T87" s="3"/>
+      <c r="U87" s="3"/>
+    </row>
+    <row r="88" spans="1:22">
+      <c r="K88" s="3"/>
+      <c r="L88" s="3"/>
+      <c r="M88" s="3"/>
+      <c r="N88" s="3"/>
+      <c r="O88" s="3"/>
+      <c r="P88" s="3"/>
+      <c r="Q88" s="3"/>
+      <c r="R88" s="3"/>
+      <c r="S88" s="3"/>
+      <c r="T88" s="3"/>
+      <c r="U88" s="3"/>
+    </row>
+    <row r="89" spans="1:22">
+      <c r="K89" s="3"/>
+      <c r="L89" s="3"/>
+      <c r="M89" s="3"/>
+      <c r="N89" s="3"/>
+      <c r="O89" s="3"/>
+      <c r="P89" s="3"/>
+      <c r="Q89" s="3"/>
+      <c r="R89" s="3"/>
+      <c r="S89" s="3"/>
+      <c r="T89" s="3"/>
+      <c r="U89" s="3"/>
+    </row>
+    <row r="90" spans="1:22">
+      <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="1:22">
+      <c r="K91" s="3"/>
+      <c r="L91" s="3"/>
+      <c r="M91" s="3"/>
+      <c r="N91" s="3"/>
+      <c r="O91" s="3"/>
+      <c r="P91" s="3"/>
+      <c r="Q91" s="3"/>
+      <c r="R91" s="3"/>
+      <c r="S91" s="3"/>
+      <c r="T91" s="3"/>
+      <c r="U91" s="3"/>
+    </row>
+    <row r="92" spans="1:22">
+      <c r="K92" s="3"/>
+      <c r="L92" s="3"/>
+      <c r="M92" s="3"/>
+      <c r="N92" s="3"/>
+      <c r="O92" s="3"/>
+      <c r="P92" s="3"/>
+      <c r="Q92" s="3"/>
+      <c r="R92" s="3"/>
+      <c r="S92" s="3"/>
+      <c r="T92" s="3"/>
+      <c r="U92" s="3"/>
+    </row>
+    <row r="93" spans="1:22">
+      <c r="K93" s="3"/>
+      <c r="L93" s="3"/>
+      <c r="M93" s="3"/>
+      <c r="N93" s="3"/>
+      <c r="O93" s="3"/>
+      <c r="P93" s="3"/>
+      <c r="Q93" s="3"/>
+      <c r="R93" s="3"/>
+      <c r="S93" s="3"/>
+      <c r="T93" s="3"/>
+      <c r="U93" s="3"/>
+    </row>
+    <row r="94" spans="1:22">
+      <c r="K94" s="3"/>
+      <c r="L94" s="3"/>
+      <c r="M94" s="3"/>
+      <c r="N94" s="3"/>
+      <c r="O94" s="3"/>
+      <c r="P94" s="3"/>
+      <c r="Q94" s="3"/>
+      <c r="R94" s="3"/>
+      <c r="S94" s="3"/>
+      <c r="T94" s="3"/>
+      <c r="U94" s="3"/>
+    </row>
+    <row r="95" spans="1:22">
+      <c r="K95" s="3"/>
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="1:22">
+      <c r="K96" s="3"/>
+      <c r="L96" s="3"/>
+      <c r="M96" s="3"/>
+      <c r="N96" s="3"/>
+      <c r="O96" s="3"/>
+      <c r="P96" s="3"/>
+      <c r="Q96" s="3"/>
+      <c r="R96" s="3"/>
+      <c r="S96" s="3"/>
+      <c r="T96" s="3"/>
+      <c r="U96" s="3"/>
+    </row>
+    <row r="97" spans="11:21">
+      <c r="K97" s="3"/>
+      <c r="L97" s="3"/>
+      <c r="M97" s="3"/>
+      <c r="N97" s="4"/>
+      <c r="O97" s="3"/>
+      <c r="P97" s="3"/>
+      <c r="Q97" s="3"/>
+      <c r="R97" s="3"/>
+      <c r="S97" s="3"/>
+      <c r="T97" s="3"/>
+      <c r="U97" s="3"/>
+    </row>
+    <row r="98" spans="11:21">
+      <c r="K98" s="3"/>
+      <c r="L98" s="3"/>
+      <c r="M98" s="3"/>
+      <c r="N98" s="3"/>
+      <c r="O98" s="3"/>
+      <c r="P98" s="3"/>
+      <c r="Q98" s="3"/>
+      <c r="R98" s="3"/>
+      <c r="S98" s="3"/>
+      <c r="T98" s="3"/>
+      <c r="U98" s="3"/>
+    </row>
+    <row r="99" spans="11:21">
+      <c r="K99" s="3"/>
+      <c r="L99" s="3"/>
+      <c r="M99" s="3"/>
+      <c r="N99" s="3"/>
+      <c r="O99" s="3"/>
+      <c r="P99" s="3"/>
+      <c r="Q99" s="3"/>
+      <c r="R99" s="3"/>
+      <c r="S99" s="3"/>
+      <c r="T99" s="3"/>
+      <c r="U99" s="3"/>
+    </row>
+    <row r="100" spans="11:21">
+      <c r="K100" s="3"/>
+      <c r="L100" s="3"/>
+      <c r="M100" s="3"/>
+      <c r="N100" s="3"/>
+      <c r="O100" s="3"/>
+      <c r="P100" s="3"/>
+      <c r="Q100" s="3"/>
+      <c r="R100" s="3"/>
+      <c r="S100" s="3"/>
+      <c r="T100" s="3"/>
+      <c r="U100" s="3"/>
+    </row>
+    <row r="101" spans="11:21">
+      <c r="K101" s="3"/>
+      <c r="L101" s="3"/>
+      <c r="M101" s="3"/>
+      <c r="N101" s="3"/>
+      <c r="O101" s="3"/>
+      <c r="P101" s="3"/>
+      <c r="Q101" s="3"/>
+      <c r="R101" s="3"/>
+      <c r="S101" s="3"/>
+      <c r="T101" s="3"/>
+      <c r="U101" s="3"/>
+    </row>
+    <row r="102" spans="11:21">
+      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
+      <c r="Q102" s="3"/>
+      <c r="R102" s="3"/>
+      <c r="S102" s="3"/>
+      <c r="T102" s="3"/>
+      <c r="U102" s="3"/>
+    </row>
+    <row r="103" spans="11:21">
+      <c r="K103" s="3"/>
+      <c r="L103" s="3"/>
+      <c r="M103" s="3"/>
+      <c r="N103" s="3"/>
+      <c r="O103" s="3"/>
+      <c r="P103" s="3"/>
+      <c r="Q103" s="3"/>
+      <c r="R103" s="3"/>
+      <c r="S103" s="3"/>
+      <c r="T103" s="3"/>
+      <c r="U103" s="3"/>
+    </row>
+    <row r="104" spans="11:21">
+      <c r="K104" s="3"/>
+      <c r="L104" s="3"/>
+      <c r="M104" s="3"/>
+      <c r="N104" s="3"/>
+      <c r="O104" s="3"/>
+      <c r="P104" s="3"/>
+      <c r="Q104" s="3"/>
+      <c r="R104" s="3"/>
+      <c r="S104" s="3"/>
+      <c r="T104" s="3"/>
+      <c r="U104" s="3"/>
+    </row>
+    <row r="105" spans="11:21">
+      <c r="K105" s="3"/>
+      <c r="L105" s="3"/>
+      <c r="M105" s="3"/>
+      <c r="N105" s="3"/>
+      <c r="O105" s="3"/>
+      <c r="P105" s="3"/>
+      <c r="Q105" s="3"/>
+      <c r="R105" s="3"/>
+      <c r="S105" s="3"/>
+      <c r="T105" s="3"/>
+      <c r="U105" s="3"/>
+    </row>
+    <row r="106" spans="11:21">
+      <c r="K106" s="3"/>
+      <c r="L106" s="3"/>
+      <c r="M106" s="3"/>
+      <c r="N106" s="3"/>
+      <c r="O106" s="3"/>
+      <c r="P106" s="3"/>
+      <c r="Q106" s="3"/>
+      <c r="R106" s="3"/>
+      <c r="S106" s="3"/>
+      <c r="T106" s="3"/>
+      <c r="U106" s="3"/>
+    </row>
+    <row r="107" spans="11:21">
+      <c r="K107" s="3"/>
+      <c r="L107" s="3"/>
+      <c r="M107" s="3"/>
+      <c r="N107" s="3"/>
+      <c r="O107" s="3"/>
+      <c r="P107" s="3"/>
+      <c r="Q107" s="3"/>
+      <c r="R107" s="3"/>
+      <c r="S107" s="3"/>
+      <c r="T107" s="3"/>
+      <c r="U107" s="3"/>
+    </row>
+    <row r="108" spans="11:21">
+      <c r="K108" s="3"/>
+      <c r="L108" s="3"/>
+      <c r="M108" s="3"/>
+      <c r="N108" s="3"/>
+      <c r="O108" s="3"/>
+      <c r="P108" s="3"/>
+      <c r="Q108" s="3"/>
+      <c r="R108" s="3"/>
+      <c r="S108" s="3"/>
+      <c r="T108" s="3"/>
+      <c r="U108" s="3"/>
+    </row>
+    <row r="109" spans="11:21">
+      <c r="K109" s="3"/>
+      <c r="L109" s="3"/>
+      <c r="M109" s="3"/>
+      <c r="N109" s="3"/>
+      <c r="O109" s="3"/>
+      <c r="P109" s="3"/>
+      <c r="Q109" s="3"/>
+      <c r="R109" s="3"/>
+      <c r="S109" s="3"/>
+      <c r="T109" s="3"/>
+      <c r="U109" s="3"/>
+    </row>
+    <row r="110" spans="11:21">
+      <c r="K110" s="3"/>
+      <c r="L110" s="3"/>
+      <c r="M110" s="3"/>
+      <c r="N110" s="3"/>
+      <c r="O110" s="3"/>
+      <c r="P110" s="3"/>
+      <c r="Q110" s="3"/>
+      <c r="R110" s="3"/>
+      <c r="S110" s="3"/>
+      <c r="T110" s="3"/>
+      <c r="U110" s="3"/>
+    </row>
+    <row r="111" spans="11:21">
+      <c r="K111" s="3"/>
+      <c r="L111" s="3"/>
+      <c r="M111" s="3"/>
+      <c r="N111" s="3"/>
+      <c r="O111" s="3"/>
+      <c r="P111" s="3"/>
+      <c r="Q111" s="3"/>
+      <c r="R111" s="3"/>
+      <c r="S111" s="3"/>
+      <c r="T111" s="3"/>
+      <c r="U111" s="3"/>
+    </row>
+    <row r="112" spans="11:21">
+      <c r="K112" s="3"/>
+      <c r="L112" s="3"/>
+      <c r="M112" s="3"/>
+      <c r="N112" s="3"/>
+      <c r="O112" s="3"/>
+      <c r="P112" s="3"/>
+      <c r="Q112" s="3"/>
+      <c r="R112" s="3"/>
+      <c r="S112" s="3"/>
+      <c r="T112" s="3"/>
+      <c r="U112" s="3"/>
+    </row>
+    <row r="113" spans="11:21">
+      <c r="K113" s="3"/>
+      <c r="L113" s="3"/>
+      <c r="M113" s="3"/>
+      <c r="N113" s="3"/>
+      <c r="O113" s="3"/>
+      <c r="P113" s="3"/>
+      <c r="Q113" s="3"/>
+      <c r="R113" s="3"/>
+      <c r="S113" s="3"/>
+      <c r="T113" s="3"/>
+      <c r="U113" s="3"/>
+    </row>
+    <row r="114" spans="11:21">
+      <c r="K114" s="3"/>
+      <c r="L114" s="3"/>
+      <c r="M114" s="3"/>
+      <c r="N114" s="3"/>
+      <c r="O114" s="3"/>
+      <c r="P114" s="3"/>
+      <c r="Q114" s="3"/>
+      <c r="R114" s="3"/>
+      <c r="S114" s="3"/>
+      <c r="T114" s="3"/>
+      <c r="U114" s="3"/>
+    </row>
+    <row r="115" spans="11:21">
+      <c r="K115" s="3"/>
+      <c r="L115" s="3"/>
+      <c r="M115" s="3"/>
+      <c r="N115" s="3"/>
+      <c r="O115" s="3"/>
+      <c r="P115" s="3"/>
+      <c r="Q115" s="3"/>
+      <c r="R115" s="3"/>
+      <c r="S115" s="3"/>
+      <c r="T115" s="3"/>
+      <c r="U115" s="3"/>
+    </row>
+    <row r="116" spans="11:21">
+      <c r="K116" s="3"/>
+      <c r="L116" s="3"/>
+      <c r="M116" s="3"/>
+      <c r="N116" s="3"/>
+      <c r="O116" s="3"/>
+      <c r="P116" s="3"/>
+      <c r="Q116" s="3"/>
+      <c r="R116" s="3"/>
+      <c r="S116" s="3"/>
+      <c r="T116" s="3"/>
+      <c r="U116" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Addsum.xlsx
+++ b/Addsum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b3bbfbef5e37dc7/Documents/R_PHD_analysis/Multigenerational_analysis/life-history-traits-analysis/Tai/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{5E618822-A9D6-49BE-AD28-0DCF4DEFA31D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{13096D7D-ABF6-4212-A05C-2BB756EBA918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F8041E9A-3BEB-47D5-9BC9-9BC8F2897E52}"/>
   </bookViews>
@@ -37,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="24">
-  <si>
-    <t>mean</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="23">
   <si>
     <t>N</t>
   </si>
@@ -90,9 +87,6 @@
     <t>Genotypes</t>
   </si>
   <si>
-    <t>A+B</t>
-  </si>
-  <si>
     <t>MP_PFOANULL</t>
   </si>
   <si>
@@ -109,6 +103,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>SMD</t>
   </si>
 </sst>
 </file>
@@ -150,14 +147,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -474,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B149D2EE-305E-4EF7-8D1A-C400C3127869}">
-  <dimension ref="A1:AA116"/>
+  <dimension ref="A1:V97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S84" sqref="S84"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -486,43 +479,40 @@
     <col min="3" max="3" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
-      <c r="R1" t="s">
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
       </c>
       <c r="D2">
         <v>-0.77951889725773604</v>
@@ -534,15 +524,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D3">
         <v>0.43096000000000001</v>
@@ -554,15 +544,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D4">
         <v>-1.71065036230637</v>
@@ -574,15 +564,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5">
         <v>-1.8339754945379301</v>
@@ -594,15 +584,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6">
         <v>-1.7939665317603799</v>
@@ -614,15 +604,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7">
         <v>-1.8491244497330701</v>
@@ -634,15 +624,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D8">
         <v>1.57453805842831</v>
@@ -654,15 +644,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D9">
         <v>-1</v>
@@ -674,15 +664,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
         <v>2</v>
       </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10">
         <v>1.4031214775804499</v>
@@ -694,15 +684,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11">
         <v>1.4624941965560601</v>
@@ -713,28 +703,16 @@
       <c r="F11">
         <v>4</v>
       </c>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27">
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12">
         <v>-0.39426</v>
@@ -745,30 +723,19 @@
       <c r="F12">
         <v>4</v>
       </c>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-    </row>
-    <row r="13" spans="1:27">
+      <c r="R12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13">
         <v>-2.20839675740734</v>
@@ -779,28 +746,16 @@
       <c r="F13">
         <v>4</v>
       </c>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-    </row>
-    <row r="14" spans="1:27">
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14">
         <v>-1.8121023614424301</v>
@@ -811,28 +766,16 @@
       <c r="F14">
         <v>4</v>
       </c>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-    </row>
-    <row r="15" spans="1:27">
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15">
         <v>-43</v>
@@ -843,28 +786,16 @@
       <c r="F15">
         <v>4</v>
       </c>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
-    </row>
-    <row r="16" spans="1:27">
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
         <v>7</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
       </c>
       <c r="D16">
         <v>-2.0801848365168198</v>
@@ -875,32 +806,17 @@
       <c r="F16">
         <v>4</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="1:27">
+      <c r="V16" s="2"/>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
         <v>7</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
       </c>
       <c r="D17">
         <v>2.2360679549995801</v>
@@ -911,31 +827,16 @@
       <c r="F17">
         <v>4</v>
       </c>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-    </row>
-    <row r="18" spans="1:27">
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
         <v>2</v>
       </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18">
         <v>0.39009471499680098</v>
@@ -947,21 +848,16 @@
         <v>4</v>
       </c>
       <c r="H18" s="2"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-    </row>
-    <row r="19" spans="1:27">
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19">
         <v>1.44913814923804</v>
@@ -972,21 +868,16 @@
       <c r="F19">
         <v>4</v>
       </c>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="1:27">
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D20">
         <v>-1.83020096454151</v>
@@ -997,21 +888,16 @@
       <c r="F20">
         <v>4</v>
       </c>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
-    </row>
-    <row r="21" spans="1:27">
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D21">
         <v>-1.8323759021947199</v>
@@ -1022,22 +908,16 @@
       <c r="F21">
         <v>4</v>
       </c>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
-      <c r="AA21" s="3"/>
-    </row>
-    <row r="22" spans="1:27">
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22">
         <v>-1.84438835917261</v>
@@ -1048,22 +928,16 @@
       <c r="F22">
         <v>4</v>
       </c>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
-    </row>
-    <row r="23" spans="1:27">
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D23">
         <v>-1.7844199006823001</v>
@@ -1074,19 +948,16 @@
       <c r="F23">
         <v>4</v>
       </c>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
-      <c r="AA23" s="3"/>
-    </row>
-    <row r="24" spans="1:27">
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D24">
         <v>1.62018534920394</v>
@@ -1097,19 +968,16 @@
       <c r="F24">
         <v>4</v>
       </c>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
-      <c r="AA24" s="3"/>
-    </row>
-    <row r="25" spans="1:27">
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D25">
         <v>1.6461095024963199</v>
@@ -1120,19 +988,16 @@
       <c r="F25">
         <v>4</v>
       </c>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="3"/>
-      <c r="AA25" s="3"/>
-    </row>
-    <row r="26" spans="1:27">
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
         <v>2</v>
       </c>
-      <c r="B26" t="s">
-        <v>3</v>
-      </c>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1143,19 +1008,16 @@
       <c r="F26">
         <v>4</v>
       </c>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="3"/>
-      <c r="AA26" s="3"/>
-    </row>
-    <row r="27" spans="1:27">
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D27">
         <v>1.5202791091023</v>
@@ -1166,19 +1028,16 @@
       <c r="F27">
         <v>4</v>
       </c>
-      <c r="Y27" s="3"/>
-      <c r="Z27" s="3"/>
-      <c r="AA27" s="3"/>
-    </row>
-    <row r="28" spans="1:27">
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D28">
         <v>-1.8534550372446099</v>
@@ -1189,29 +1048,16 @@
       <c r="F28">
         <v>4</v>
       </c>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="3"/>
-      <c r="AA28" s="3"/>
-    </row>
-    <row r="29" spans="1:27">
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D29">
         <v>-1.8436248603457099</v>
@@ -1222,30 +1068,16 @@
       <c r="F29">
         <v>4</v>
       </c>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
-      <c r="X29" s="3"/>
-      <c r="Y29" s="3"/>
-      <c r="Z29" s="3"/>
-      <c r="AA29" s="3"/>
-    </row>
-    <row r="30" spans="1:27">
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D30">
         <v>-1.75027838638335</v>
@@ -1256,30 +1088,16 @@
       <c r="F30">
         <v>4</v>
       </c>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
-      <c r="V30" s="3"/>
-      <c r="W30" s="3"/>
-      <c r="X30" s="3"/>
-      <c r="Y30" s="3"/>
-      <c r="Z30" s="3"/>
-      <c r="AA30" s="3"/>
-    </row>
-    <row r="31" spans="1:27">
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D31">
         <v>-1.7432821485482499</v>
@@ -1290,30 +1108,16 @@
       <c r="F31">
         <v>4</v>
       </c>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
-      <c r="U31" s="3"/>
-      <c r="V31" s="3"/>
-      <c r="W31" s="3"/>
-      <c r="X31" s="3"/>
-      <c r="Y31" s="3"/>
-      <c r="Z31" s="3"/>
-      <c r="AA31" s="3"/>
-    </row>
-    <row r="32" spans="1:27">
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D32">
         <v>1.4303472883216</v>
@@ -1324,30 +1128,16 @@
       <c r="F32">
         <v>4</v>
       </c>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
-      <c r="V32" s="3"/>
-      <c r="W32" s="3"/>
-      <c r="X32" s="3"/>
-      <c r="Y32" s="3"/>
-      <c r="Z32" s="3"/>
-      <c r="AA32" s="3"/>
-    </row>
-    <row r="33" spans="1:27">
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D33">
         <v>0.67684203914637697</v>
@@ -1358,30 +1148,16 @@
       <c r="F33">
         <v>4</v>
       </c>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
-      <c r="U33" s="3"/>
-      <c r="V33" s="3"/>
-      <c r="W33" s="3"/>
-      <c r="X33" s="3"/>
-      <c r="Y33" s="3"/>
-      <c r="Z33" s="3"/>
-      <c r="AA33" s="3"/>
-    </row>
-    <row r="34" spans="1:27">
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
         <v>2</v>
       </c>
-      <c r="B34" t="s">
-        <v>3</v>
-      </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D34">
         <v>-0.93541519338773704</v>
@@ -1392,30 +1168,16 @@
       <c r="F34">
         <v>4</v>
       </c>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
-      <c r="V34" s="3"/>
-      <c r="W34" s="3"/>
-      <c r="X34" s="3"/>
-      <c r="Y34" s="3"/>
-      <c r="Z34" s="3"/>
-      <c r="AA34" s="3"/>
-    </row>
-    <row r="35" spans="1:27">
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D35">
         <v>1.26131271372943</v>
@@ -1426,30 +1188,16 @@
       <c r="F35">
         <v>4</v>
       </c>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
-      <c r="U35" s="3"/>
-      <c r="V35" s="3"/>
-      <c r="W35" s="3"/>
-      <c r="X35" s="3"/>
-      <c r="Y35" s="3"/>
-      <c r="Z35" s="3"/>
-      <c r="AA35" s="3"/>
-    </row>
-    <row r="36" spans="1:27">
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D36">
         <v>-1.8423067974717899</v>
@@ -1460,30 +1208,16 @@
       <c r="F36">
         <v>4</v>
       </c>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
-      <c r="U36" s="3"/>
-      <c r="V36" s="3"/>
-      <c r="W36" s="3"/>
-      <c r="X36" s="3"/>
-      <c r="Y36" s="3"/>
-      <c r="Z36" s="3"/>
-      <c r="AA36" s="3"/>
-    </row>
-    <row r="37" spans="1:27">
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D37">
         <v>-1.58788823833691</v>
@@ -1494,30 +1228,16 @@
       <c r="F37">
         <v>4</v>
       </c>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="3"/>
-      <c r="U37" s="3"/>
-      <c r="V37" s="3"/>
-      <c r="W37" s="3"/>
-      <c r="X37" s="3"/>
-      <c r="Y37" s="3"/>
-      <c r="Z37" s="3"/>
-      <c r="AA37" s="3"/>
-    </row>
-    <row r="38" spans="1:27">
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D38">
         <v>-1.84163732324531</v>
@@ -1528,30 +1248,16 @@
       <c r="F38">
         <v>4</v>
       </c>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
-      <c r="S38" s="3"/>
-      <c r="T38" s="3"/>
-      <c r="U38" s="3"/>
-      <c r="V38" s="3"/>
-      <c r="W38" s="3"/>
-      <c r="X38" s="3"/>
-      <c r="Y38" s="3"/>
-      <c r="Z38" s="3"/>
-      <c r="AA38" s="3"/>
-    </row>
-    <row r="39" spans="1:27">
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D39">
         <v>-1.73889843120217</v>
@@ -1562,30 +1268,16 @@
       <c r="F39">
         <v>4</v>
       </c>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
-      <c r="S39" s="3"/>
-      <c r="T39" s="3"/>
-      <c r="U39" s="3"/>
-      <c r="V39" s="3"/>
-      <c r="W39" s="3"/>
-      <c r="X39" s="3"/>
-      <c r="Y39" s="3"/>
-      <c r="Z39" s="3"/>
-      <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="1:27">
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D40">
         <v>1.84637245665271</v>
@@ -1596,30 +1288,16 @@
       <c r="F40">
         <v>4</v>
       </c>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="3"/>
-      <c r="U40" s="3"/>
-      <c r="V40" s="3"/>
-      <c r="W40" s="3"/>
-      <c r="X40" s="3"/>
-      <c r="Y40" s="3"/>
-      <c r="Z40" s="3"/>
-      <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="1:27">
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D41">
         <v>1.00803199896777</v>
@@ -1630,20 +1308,16 @@
       <c r="F41">
         <v>4</v>
       </c>
-      <c r="X41" s="3"/>
-      <c r="Y41" s="3"/>
-      <c r="Z41" s="3"/>
-      <c r="AA41" s="3"/>
-    </row>
-    <row r="42" spans="1:27">
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
         <v>2</v>
       </c>
-      <c r="B42" t="s">
-        <v>3</v>
-      </c>
       <c r="C42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D42">
         <v>1.01881887444636</v>
@@ -1654,22 +1328,16 @@
       <c r="F42">
         <v>4</v>
       </c>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="X42" s="3"/>
-      <c r="Y42" s="3"/>
-      <c r="Z42" s="3"/>
-      <c r="AA42" s="3"/>
-    </row>
-    <row r="43" spans="1:27">
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D43">
         <v>1.6624263056110999</v>
@@ -1680,22 +1348,16 @@
       <c r="F43">
         <v>4</v>
       </c>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="X43" s="3"/>
-      <c r="Y43" s="3"/>
-      <c r="Z43" s="3"/>
-      <c r="AA43" s="3"/>
-    </row>
-    <row r="44" spans="1:27">
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D44">
         <v>-2.5059642147117298</v>
@@ -1706,22 +1368,16 @@
       <c r="F44">
         <v>4</v>
       </c>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="X44" s="3"/>
-      <c r="Y44" s="3"/>
-      <c r="Z44" s="3"/>
-      <c r="AA44" s="3"/>
-    </row>
-    <row r="45" spans="1:27">
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D45">
         <v>-1.7986239696802599</v>
@@ -1732,22 +1388,16 @@
       <c r="F45">
         <v>4</v>
       </c>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="X45" s="3"/>
-      <c r="Y45" s="3"/>
-      <c r="Z45" s="3"/>
-      <c r="AA45" s="3"/>
-    </row>
-    <row r="46" spans="1:27">
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D46">
         <v>-1.8206753755701399</v>
@@ -1758,22 +1408,16 @@
       <c r="F46">
         <v>4</v>
       </c>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="X46" s="3"/>
-      <c r="Y46" s="3"/>
-      <c r="Z46" s="3"/>
-      <c r="AA46" s="3"/>
-    </row>
-    <row r="47" spans="1:27">
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D47">
         <v>-1.7586572429591001</v>
@@ -1784,22 +1428,16 @@
       <c r="F47">
         <v>4</v>
       </c>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="X47" s="3"/>
-      <c r="Y47" s="3"/>
-      <c r="Z47" s="3"/>
-      <c r="AA47" s="3"/>
-    </row>
-    <row r="48" spans="1:27">
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D48">
         <v>-1.36930528752672</v>
@@ -1810,21 +1448,16 @@
       <c r="F48">
         <v>4</v>
       </c>
-      <c r="J48" s="3"/>
-      <c r="X48" s="3"/>
-      <c r="Y48" s="3"/>
-      <c r="Z48" s="3"/>
-      <c r="AA48" s="3"/>
-    </row>
-    <row r="49" spans="1:27">
+    </row>
+    <row r="49" spans="1:16">
       <c r="A49" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D49">
         <v>0.67067040230174102</v>
@@ -1835,20 +1468,16 @@
       <c r="F49">
         <v>4</v>
       </c>
-      <c r="X49" s="3"/>
-      <c r="Y49" s="3"/>
-      <c r="Z49" s="3"/>
-      <c r="AA49" s="3"/>
-    </row>
-    <row r="50" spans="1:27">
+    </row>
+    <row r="50" spans="1:16">
       <c r="A50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
         <v>2</v>
       </c>
-      <c r="B50" t="s">
-        <v>3</v>
-      </c>
       <c r="C50" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D50">
         <v>-6.0163371332020502E-2</v>
@@ -1859,20 +1488,16 @@
       <c r="F50">
         <v>4</v>
       </c>
-      <c r="X50" s="3"/>
-      <c r="Y50" s="3"/>
-      <c r="Z50" s="3"/>
-      <c r="AA50" s="3"/>
-    </row>
-    <row r="51" spans="1:27">
+    </row>
+    <row r="51" spans="1:16">
       <c r="A51" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B51" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C51" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D51">
         <v>1.47902009988315</v>
@@ -1883,18 +1508,16 @@
       <c r="F51">
         <v>4</v>
       </c>
-      <c r="X51" s="3"/>
-      <c r="Y51" s="3"/>
-    </row>
-    <row r="52" spans="1:27">
+    </row>
+    <row r="52" spans="1:16">
       <c r="A52" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C52" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D52">
         <v>-1.8218520592452201</v>
@@ -1905,18 +1528,16 @@
       <c r="F52">
         <v>4</v>
       </c>
-      <c r="X52" s="3"/>
-      <c r="Y52" s="3"/>
-    </row>
-    <row r="53" spans="1:27">
+    </row>
+    <row r="53" spans="1:16">
       <c r="A53" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C53" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D53">
         <v>-1.6668668641648701</v>
@@ -1927,18 +1548,16 @@
       <c r="F53">
         <v>4</v>
       </c>
-      <c r="X53" s="3"/>
-      <c r="Y53" s="3"/>
-    </row>
-    <row r="54" spans="1:27">
+    </row>
+    <row r="54" spans="1:16">
       <c r="A54" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C54" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D54">
         <v>-1.8076353111554599</v>
@@ -1949,29 +1568,16 @@
       <c r="F54">
         <v>4</v>
       </c>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
-      <c r="O54" s="3"/>
-      <c r="P54" s="3"/>
-      <c r="Q54" s="3"/>
-      <c r="R54" s="3"/>
-      <c r="S54" s="3"/>
-      <c r="T54" s="3"/>
-      <c r="X54" s="3"/>
-      <c r="Y54" s="3"/>
-    </row>
-    <row r="55" spans="1:27">
+    </row>
+    <row r="55" spans="1:16">
       <c r="A55" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C55" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D55">
         <v>-1.88070147483767</v>
@@ -1982,32 +1588,16 @@
       <c r="F55">
         <v>4</v>
       </c>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
-      <c r="O55" s="3"/>
-      <c r="P55" s="3"/>
-      <c r="Q55" s="3"/>
-      <c r="R55" s="3"/>
-      <c r="S55" s="3"/>
-      <c r="T55" s="3"/>
-      <c r="U55" s="3"/>
-      <c r="V55" s="3"/>
-      <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="1:27">
+    </row>
+    <row r="56" spans="1:16">
       <c r="A56" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C56" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D56">
         <v>1.30132452204613</v>
@@ -2018,32 +1608,16 @@
       <c r="F56">
         <v>4</v>
       </c>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
-      <c r="O56" s="3"/>
-      <c r="P56" s="3"/>
-      <c r="Q56" s="3"/>
-      <c r="R56" s="3"/>
-      <c r="S56" s="3"/>
-      <c r="T56" s="3"/>
-      <c r="U56" s="3"/>
-      <c r="V56" s="3"/>
-      <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="1:27">
+    </row>
+    <row r="57" spans="1:16">
       <c r="A57" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D57">
         <v>1.2404152083173901</v>
@@ -2054,32 +1628,16 @@
       <c r="F57">
         <v>4</v>
       </c>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3"/>
-      <c r="O57" s="3"/>
-      <c r="P57" s="3"/>
-      <c r="Q57" s="3"/>
-      <c r="R57" s="3"/>
-      <c r="S57" s="3"/>
-      <c r="T57" s="3"/>
-      <c r="U57" s="3"/>
-      <c r="V57" s="3"/>
-      <c r="W57" s="3"/>
-    </row>
-    <row r="58" spans="1:27">
+    </row>
+    <row r="58" spans="1:16">
       <c r="A58" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" t="s">
         <v>2</v>
       </c>
-      <c r="B58" t="s">
-        <v>3</v>
-      </c>
       <c r="C58" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D58">
         <v>0.96091967150823698</v>
@@ -2090,32 +1648,16 @@
       <c r="F58">
         <v>4</v>
       </c>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
-      <c r="N58" s="3"/>
-      <c r="O58" s="3"/>
-      <c r="P58" s="3"/>
-      <c r="Q58" s="3"/>
-      <c r="R58" s="3"/>
-      <c r="S58" s="3"/>
-      <c r="T58" s="3"/>
-      <c r="U58" s="3"/>
-      <c r="V58" s="3"/>
-      <c r="W58" s="3"/>
-    </row>
-    <row r="59" spans="1:27">
+    </row>
+    <row r="59" spans="1:16">
       <c r="A59" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B59" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C59" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D59">
         <v>1.4937996915758001</v>
@@ -2126,32 +1668,17 @@
       <c r="F59">
         <v>4</v>
       </c>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="3"/>
-      <c r="O59" s="3"/>
-      <c r="P59" s="4"/>
-      <c r="Q59" s="3"/>
-      <c r="R59" s="3"/>
-      <c r="S59" s="3"/>
-      <c r="T59" s="3"/>
-      <c r="U59" s="3"/>
-      <c r="V59" s="3"/>
-      <c r="W59" s="3"/>
-    </row>
-    <row r="60" spans="1:27">
+      <c r="P59" s="2"/>
+    </row>
+    <row r="60" spans="1:16">
       <c r="A60" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B60" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C60" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D60">
         <v>-1.8769540238800699</v>
@@ -2162,32 +1689,16 @@
       <c r="F60">
         <v>4</v>
       </c>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-      <c r="M60" s="3"/>
-      <c r="N60" s="3"/>
-      <c r="O60" s="3"/>
-      <c r="P60" s="3"/>
-      <c r="Q60" s="3"/>
-      <c r="R60" s="3"/>
-      <c r="S60" s="3"/>
-      <c r="T60" s="3"/>
-      <c r="U60" s="3"/>
-      <c r="V60" s="3"/>
-      <c r="W60" s="3"/>
-    </row>
-    <row r="61" spans="1:27">
+    </row>
+    <row r="61" spans="1:16">
       <c r="A61" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B61" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D61">
         <v>-1.98578757963332</v>
@@ -2198,32 +1709,16 @@
       <c r="F61">
         <v>4</v>
       </c>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
-      <c r="M61" s="3"/>
-      <c r="N61" s="3"/>
-      <c r="O61" s="3"/>
-      <c r="P61" s="3"/>
-      <c r="Q61" s="3"/>
-      <c r="R61" s="3"/>
-      <c r="S61" s="3"/>
-      <c r="T61" s="3"/>
-      <c r="U61" s="3"/>
-      <c r="V61" s="3"/>
-      <c r="W61" s="3"/>
-    </row>
-    <row r="62" spans="1:27">
+    </row>
+    <row r="62" spans="1:16">
       <c r="A62" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C62" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D62">
         <v>-1.8773675691010301</v>
@@ -2234,32 +1729,16 @@
       <c r="F62">
         <v>4</v>
       </c>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
-      <c r="N62" s="3"/>
-      <c r="O62" s="3"/>
-      <c r="P62" s="3"/>
-      <c r="Q62" s="3"/>
-      <c r="R62" s="3"/>
-      <c r="S62" s="3"/>
-      <c r="T62" s="3"/>
-      <c r="U62" s="3"/>
-      <c r="V62" s="3"/>
-      <c r="W62" s="3"/>
-    </row>
-    <row r="63" spans="1:27">
+    </row>
+    <row r="63" spans="1:16">
       <c r="A63" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C63" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D63">
         <v>-1.49127361462202</v>
@@ -2270,32 +1749,16 @@
       <c r="F63">
         <v>4</v>
       </c>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
-      <c r="M63" s="3"/>
-      <c r="N63" s="3"/>
-      <c r="O63" s="3"/>
-      <c r="P63" s="3"/>
-      <c r="Q63" s="3"/>
-      <c r="R63" s="3"/>
-      <c r="S63" s="3"/>
-      <c r="T63" s="3"/>
-      <c r="U63" s="3"/>
-      <c r="V63" s="3"/>
-      <c r="W63" s="3"/>
-    </row>
-    <row r="64" spans="1:27">
+    </row>
+    <row r="64" spans="1:16">
       <c r="A64" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C64" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D64">
         <v>1.3653741125068199</v>
@@ -2306,32 +1769,16 @@
       <c r="F64">
         <v>4</v>
       </c>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
-      <c r="L64" s="3"/>
-      <c r="M64" s="3"/>
-      <c r="N64" s="3"/>
-      <c r="O64" s="3"/>
-      <c r="P64" s="3"/>
-      <c r="Q64" s="3"/>
-      <c r="R64" s="3"/>
-      <c r="S64" s="3"/>
-      <c r="T64" s="3"/>
-      <c r="U64" s="3"/>
-      <c r="V64" s="3"/>
-      <c r="W64" s="3"/>
-    </row>
-    <row r="65" spans="1:25">
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D65">
         <v>1.6961132485564501</v>
@@ -2342,32 +1789,16 @@
       <c r="F65">
         <v>4</v>
       </c>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
-      <c r="L65" s="3"/>
-      <c r="M65" s="3"/>
-      <c r="N65" s="3"/>
-      <c r="O65" s="3"/>
-      <c r="P65" s="3"/>
-      <c r="Q65" s="3"/>
-      <c r="R65" s="3"/>
-      <c r="S65" s="3"/>
-      <c r="T65" s="3"/>
-      <c r="U65" s="3"/>
-      <c r="V65" s="3"/>
-      <c r="W65" s="3"/>
-    </row>
-    <row r="66" spans="1:25">
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66" t="s">
         <v>2</v>
       </c>
-      <c r="B66" t="s">
-        <v>3</v>
-      </c>
       <c r="C66" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D66">
         <v>0.70599906362170295</v>
@@ -2378,29 +1809,16 @@
       <c r="F66">
         <v>4</v>
       </c>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="3"/>
-      <c r="L66" s="3"/>
-      <c r="M66" s="3"/>
-      <c r="N66" s="3"/>
-      <c r="O66" s="3"/>
-      <c r="P66" s="3"/>
-      <c r="Q66" s="3"/>
-      <c r="R66" s="3"/>
-      <c r="S66" s="3"/>
-      <c r="T66" s="3"/>
-      <c r="U66" s="3"/>
-    </row>
-    <row r="67" spans="1:25">
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B67" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C67" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D67">
         <v>1.48582169786594</v>
@@ -2411,29 +1829,16 @@
       <c r="F67">
         <v>4</v>
       </c>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
-      <c r="L67" s="3"/>
-      <c r="M67" s="3"/>
-      <c r="N67" s="3"/>
-      <c r="O67" s="3"/>
-      <c r="P67" s="3"/>
-      <c r="Q67" s="3"/>
-      <c r="R67" s="3"/>
-      <c r="S67" s="3"/>
-      <c r="T67" s="3"/>
-      <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="1:25">
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B68" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C68" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D68">
         <v>-0.19410920384077099</v>
@@ -2444,29 +1849,16 @@
       <c r="F68">
         <v>4</v>
       </c>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
-      <c r="M68" s="3"/>
-      <c r="N68" s="3"/>
-      <c r="O68" s="3"/>
-      <c r="P68" s="3"/>
-      <c r="Q68" s="3"/>
-      <c r="R68" s="3"/>
-      <c r="S68" s="3"/>
-      <c r="T68" s="3"/>
-      <c r="U68" s="3"/>
-    </row>
-    <row r="69" spans="1:25">
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D69">
         <v>-0.19444911398384199</v>
@@ -2477,29 +1869,16 @@
       <c r="F69">
         <v>4</v>
       </c>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
-      <c r="L69" s="3"/>
-      <c r="M69" s="3"/>
-      <c r="N69" s="3"/>
-      <c r="O69" s="3"/>
-      <c r="P69" s="3"/>
-      <c r="Q69" s="3"/>
-      <c r="R69" s="3"/>
-      <c r="S69" s="3"/>
-      <c r="T69" s="3"/>
-      <c r="U69" s="3"/>
-    </row>
-    <row r="70" spans="1:25">
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B70" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D70">
         <v>-1.67557298169694</v>
@@ -2510,31 +1889,16 @@
       <c r="F70">
         <v>4</v>
       </c>
-      <c r="G70" s="3"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
-      <c r="L70" s="3"/>
-      <c r="M70" s="3"/>
-      <c r="N70" s="3"/>
-      <c r="O70" s="3"/>
-      <c r="P70" s="3"/>
-      <c r="Q70" s="3"/>
-      <c r="R70" s="3"/>
-      <c r="S70" s="3"/>
-      <c r="T70" s="3"/>
-      <c r="U70" s="3"/>
-      <c r="Y70" s="3"/>
-    </row>
-    <row r="71" spans="1:25">
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C71" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D71">
         <v>-2.9928506136409001</v>
@@ -2545,31 +1909,16 @@
       <c r="F71">
         <v>4</v>
       </c>
-      <c r="G71" s="3"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
-      <c r="K71" s="3"/>
-      <c r="L71" s="3"/>
-      <c r="M71" s="3"/>
-      <c r="N71" s="3"/>
-      <c r="O71" s="3"/>
-      <c r="P71" s="3"/>
-      <c r="Q71" s="3"/>
-      <c r="R71" s="3"/>
-      <c r="S71" s="3"/>
-      <c r="T71" s="3"/>
-      <c r="U71" s="3"/>
-      <c r="Y71" s="3"/>
-    </row>
-    <row r="72" spans="1:25">
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C72" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D72">
         <v>1.5553407111384301</v>
@@ -2580,31 +1929,16 @@
       <c r="F72">
         <v>4</v>
       </c>
-      <c r="G72" s="3"/>
-      <c r="I72" s="3"/>
-      <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
-      <c r="L72" s="3"/>
-      <c r="M72" s="3"/>
-      <c r="N72" s="3"/>
-      <c r="O72" s="3"/>
-      <c r="P72" s="3"/>
-      <c r="Q72" s="3"/>
-      <c r="R72" s="3"/>
-      <c r="S72" s="3"/>
-      <c r="T72" s="3"/>
-      <c r="U72" s="3"/>
-      <c r="Y72" s="3"/>
-    </row>
-    <row r="73" spans="1:25">
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C73" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D73">
         <v>1.1055416146785799</v>
@@ -2615,30 +1949,16 @@
       <c r="F73">
         <v>4</v>
       </c>
-      <c r="I73" s="3"/>
-      <c r="J73" s="3"/>
-      <c r="K73" s="3"/>
-      <c r="L73" s="3"/>
-      <c r="M73" s="3"/>
-      <c r="N73" s="3"/>
-      <c r="O73" s="3"/>
-      <c r="P73" s="3"/>
-      <c r="Q73" s="3"/>
-      <c r="R73" s="3"/>
-      <c r="S73" s="3"/>
-      <c r="T73" s="3"/>
-      <c r="U73" s="3"/>
-      <c r="Y73" s="3"/>
-    </row>
-    <row r="74" spans="1:25">
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74" t="s">
         <v>2</v>
       </c>
-      <c r="B74" t="s">
-        <v>3</v>
-      </c>
       <c r="C74" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D74">
         <v>0.61295164299375104</v>
@@ -2649,30 +1969,16 @@
       <c r="F74">
         <v>4</v>
       </c>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
-      <c r="L74" s="3"/>
-      <c r="M74" s="3"/>
-      <c r="N74" s="3"/>
-      <c r="O74" s="3"/>
-      <c r="P74" s="3"/>
-      <c r="Q74" s="3"/>
-      <c r="R74" s="3"/>
-      <c r="S74" s="3"/>
-      <c r="T74" s="3"/>
-      <c r="U74" s="3"/>
-      <c r="Y74" s="3"/>
-    </row>
-    <row r="75" spans="1:25">
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B75" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C75" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D75">
         <v>1.50093245428722</v>
@@ -2683,31 +1989,16 @@
       <c r="F75">
         <v>4</v>
       </c>
-      <c r="G75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
-      <c r="L75" s="3"/>
-      <c r="M75" s="3"/>
-      <c r="N75" s="3"/>
-      <c r="O75" s="3"/>
-      <c r="P75" s="3"/>
-      <c r="Q75" s="3"/>
-      <c r="R75" s="3"/>
-      <c r="S75" s="3"/>
-      <c r="T75" s="3"/>
-      <c r="U75" s="3"/>
-      <c r="Y75" s="3"/>
-    </row>
-    <row r="76" spans="1:25">
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C76" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D76">
         <v>-1.83879831369485</v>
@@ -2718,30 +2009,16 @@
       <c r="F76">
         <v>4</v>
       </c>
-      <c r="G76" s="3"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
-      <c r="K76" s="3"/>
-      <c r="L76" s="3"/>
-      <c r="M76" s="3"/>
-      <c r="N76" s="3"/>
-      <c r="O76" s="3"/>
-      <c r="P76" s="3"/>
-      <c r="Q76" s="3"/>
-      <c r="R76" s="3"/>
-      <c r="S76" s="3"/>
-      <c r="T76" s="3"/>
-      <c r="U76" s="3"/>
-    </row>
-    <row r="77" spans="1:25">
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C77" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D77">
         <v>-2.0064042517854102</v>
@@ -2752,29 +2029,16 @@
       <c r="F77">
         <v>4</v>
       </c>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
-      <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
-      <c r="M77" s="3"/>
-      <c r="N77" s="3"/>
-      <c r="O77" s="3"/>
-      <c r="P77" s="3"/>
-      <c r="Q77" s="3"/>
-      <c r="R77" s="3"/>
-      <c r="S77" s="3"/>
-      <c r="T77" s="3"/>
-      <c r="U77" s="3"/>
-    </row>
-    <row r="78" spans="1:25">
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C78" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D78">
         <v>-1.8136178383286801</v>
@@ -2785,29 +2049,16 @@
       <c r="F78">
         <v>4</v>
       </c>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
-      <c r="K78" s="3"/>
-      <c r="L78" s="3"/>
-      <c r="M78" s="3"/>
-      <c r="N78" s="3"/>
-      <c r="O78" s="3"/>
-      <c r="P78" s="3"/>
-      <c r="Q78" s="3"/>
-      <c r="R78" s="3"/>
-      <c r="S78" s="3"/>
-      <c r="T78" s="3"/>
-      <c r="U78" s="3"/>
-    </row>
-    <row r="79" spans="1:25">
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C79" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D79">
         <v>-1.78236662117749</v>
@@ -2818,29 +2069,16 @@
       <c r="F79">
         <v>4</v>
       </c>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
-      <c r="K79" s="3"/>
-      <c r="L79" s="3"/>
-      <c r="M79" s="3"/>
-      <c r="N79" s="3"/>
-      <c r="O79" s="3"/>
-      <c r="P79" s="3"/>
-      <c r="Q79" s="3"/>
-      <c r="R79" s="3"/>
-      <c r="S79" s="3"/>
-      <c r="T79" s="3"/>
-      <c r="U79" s="3"/>
-    </row>
-    <row r="80" spans="1:25">
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C80" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D80">
         <v>1.4798268130360901</v>
@@ -2851,30 +2089,16 @@
       <c r="F80">
         <v>4</v>
       </c>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
-      <c r="K80" s="3"/>
-      <c r="L80" s="3"/>
-      <c r="M80" s="3"/>
-      <c r="N80" s="3"/>
-      <c r="O80" s="3"/>
-      <c r="P80" s="3"/>
-      <c r="Q80" s="3"/>
-      <c r="R80" s="3"/>
-      <c r="S80" s="3"/>
-      <c r="T80" s="3"/>
-      <c r="U80" s="3"/>
-    </row>
-    <row r="81" spans="1:22">
+    </row>
+    <row r="81" spans="1:17">
       <c r="A81" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C81" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D81">
         <v>1.3063063389966501</v>
@@ -2885,493 +2109,12 @@
       <c r="F81">
         <v>4</v>
       </c>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
-      <c r="L81" s="3"/>
-      <c r="M81" s="3"/>
-      <c r="N81" s="3"/>
-      <c r="O81" s="3"/>
-      <c r="P81" s="3"/>
-      <c r="Q81" s="3"/>
-      <c r="R81" s="3"/>
-      <c r="S81" s="3"/>
-      <c r="T81" s="3"/>
-      <c r="U81" s="3"/>
-      <c r="V81" s="3"/>
-    </row>
-    <row r="82" spans="1:22">
-      <c r="I82" s="3"/>
-      <c r="J82" s="3"/>
-      <c r="K82" s="3"/>
-      <c r="L82" s="3"/>
-      <c r="M82" s="3"/>
-      <c r="N82" s="3"/>
-      <c r="O82" s="3"/>
-      <c r="P82" s="3"/>
-      <c r="Q82" s="3"/>
-      <c r="R82" s="3"/>
-      <c r="S82" s="3"/>
-      <c r="T82" s="3"/>
-      <c r="U82" s="3"/>
-      <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="1:22">
-      <c r="F83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
-      <c r="K83" s="3"/>
-      <c r="L83" s="3"/>
-      <c r="M83" s="3"/>
-      <c r="N83" s="3"/>
-      <c r="O83" s="3"/>
-      <c r="P83" s="3"/>
-      <c r="Q83" s="3"/>
-      <c r="R83" s="3"/>
-      <c r="S83" s="3"/>
-      <c r="T83" s="3"/>
-      <c r="U83" s="3"/>
-      <c r="V83" s="3"/>
-    </row>
-    <row r="84" spans="1:22">
-      <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
-      <c r="K84" s="3"/>
-      <c r="L84" s="3"/>
-      <c r="M84" s="3"/>
-      <c r="N84" s="3"/>
-      <c r="O84" s="3"/>
-      <c r="P84" s="3"/>
-      <c r="Q84" s="3"/>
-      <c r="R84" s="3"/>
-      <c r="S84" s="3"/>
-      <c r="T84" s="3"/>
-      <c r="U84" s="3"/>
-      <c r="V84" s="3"/>
-    </row>
-    <row r="85" spans="1:22">
-      <c r="I85" s="3"/>
-      <c r="J85" s="3"/>
-      <c r="K85" s="3"/>
-      <c r="L85" s="3"/>
-      <c r="M85" s="3"/>
-      <c r="N85" s="3"/>
-      <c r="O85" s="3"/>
-      <c r="P85" s="3"/>
-      <c r="Q85" s="3"/>
-      <c r="R85" s="3"/>
-      <c r="S85" s="3"/>
-      <c r="T85" s="3"/>
-      <c r="U85" s="3"/>
-      <c r="V85" s="3"/>
-    </row>
-    <row r="86" spans="1:22">
-      <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
-      <c r="L86" s="3"/>
-      <c r="M86" s="3"/>
-      <c r="N86" s="3"/>
-      <c r="O86" s="3"/>
-      <c r="P86" s="3"/>
-      <c r="Q86" s="3"/>
-      <c r="R86" s="3"/>
-      <c r="S86" s="3"/>
-      <c r="T86" s="3"/>
-      <c r="U86" s="3"/>
-      <c r="V86" s="3"/>
-    </row>
-    <row r="87" spans="1:22">
-      <c r="J87" s="3"/>
-      <c r="K87" s="3"/>
-      <c r="L87" s="3"/>
-      <c r="M87" s="3"/>
-      <c r="N87" s="3"/>
-      <c r="O87" s="3"/>
-      <c r="P87" s="3"/>
-      <c r="Q87" s="4"/>
-      <c r="R87" s="3"/>
-      <c r="S87" s="3"/>
-      <c r="T87" s="3"/>
-      <c r="U87" s="3"/>
-    </row>
-    <row r="88" spans="1:22">
-      <c r="K88" s="3"/>
-      <c r="L88" s="3"/>
-      <c r="M88" s="3"/>
-      <c r="N88" s="3"/>
-      <c r="O88" s="3"/>
-      <c r="P88" s="3"/>
-      <c r="Q88" s="3"/>
-      <c r="R88" s="3"/>
-      <c r="S88" s="3"/>
-      <c r="T88" s="3"/>
-      <c r="U88" s="3"/>
-    </row>
-    <row r="89" spans="1:22">
-      <c r="K89" s="3"/>
-      <c r="L89" s="3"/>
-      <c r="M89" s="3"/>
-      <c r="N89" s="3"/>
-      <c r="O89" s="3"/>
-      <c r="P89" s="3"/>
-      <c r="Q89" s="3"/>
-      <c r="R89" s="3"/>
-      <c r="S89" s="3"/>
-      <c r="T89" s="3"/>
-      <c r="U89" s="3"/>
-    </row>
-    <row r="90" spans="1:22">
-      <c r="K90" s="3"/>
-      <c r="L90" s="3"/>
-      <c r="M90" s="3"/>
-      <c r="N90" s="3"/>
-      <c r="O90" s="3"/>
-      <c r="P90" s="3"/>
-      <c r="Q90" s="3"/>
-      <c r="R90" s="3"/>
-      <c r="S90" s="3"/>
-      <c r="T90" s="3"/>
-      <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="1:22">
-      <c r="K91" s="3"/>
-      <c r="L91" s="3"/>
-      <c r="M91" s="3"/>
-      <c r="N91" s="3"/>
-      <c r="O91" s="3"/>
-      <c r="P91" s="3"/>
-      <c r="Q91" s="3"/>
-      <c r="R91" s="3"/>
-      <c r="S91" s="3"/>
-      <c r="T91" s="3"/>
-      <c r="U91" s="3"/>
-    </row>
-    <row r="92" spans="1:22">
-      <c r="K92" s="3"/>
-      <c r="L92" s="3"/>
-      <c r="M92" s="3"/>
-      <c r="N92" s="3"/>
-      <c r="O92" s="3"/>
-      <c r="P92" s="3"/>
-      <c r="Q92" s="3"/>
-      <c r="R92" s="3"/>
-      <c r="S92" s="3"/>
-      <c r="T92" s="3"/>
-      <c r="U92" s="3"/>
-    </row>
-    <row r="93" spans="1:22">
-      <c r="K93" s="3"/>
-      <c r="L93" s="3"/>
-      <c r="M93" s="3"/>
-      <c r="N93" s="3"/>
-      <c r="O93" s="3"/>
-      <c r="P93" s="3"/>
-      <c r="Q93" s="3"/>
-      <c r="R93" s="3"/>
-      <c r="S93" s="3"/>
-      <c r="T93" s="3"/>
-      <c r="U93" s="3"/>
-    </row>
-    <row r="94" spans="1:22">
-      <c r="K94" s="3"/>
-      <c r="L94" s="3"/>
-      <c r="M94" s="3"/>
-      <c r="N94" s="3"/>
-      <c r="O94" s="3"/>
-      <c r="P94" s="3"/>
-      <c r="Q94" s="3"/>
-      <c r="R94" s="3"/>
-      <c r="S94" s="3"/>
-      <c r="T94" s="3"/>
-      <c r="U94" s="3"/>
-    </row>
-    <row r="95" spans="1:22">
-      <c r="K95" s="3"/>
-      <c r="L95" s="3"/>
-      <c r="M95" s="3"/>
-      <c r="N95" s="3"/>
-      <c r="O95" s="3"/>
-      <c r="P95" s="3"/>
-      <c r="Q95" s="3"/>
-      <c r="R95" s="3"/>
-      <c r="S95" s="3"/>
-      <c r="T95" s="3"/>
-      <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="1:22">
-      <c r="K96" s="3"/>
-      <c r="L96" s="3"/>
-      <c r="M96" s="3"/>
-      <c r="N96" s="3"/>
-      <c r="O96" s="3"/>
-      <c r="P96" s="3"/>
-      <c r="Q96" s="3"/>
-      <c r="R96" s="3"/>
-      <c r="S96" s="3"/>
-      <c r="T96" s="3"/>
-      <c r="U96" s="3"/>
-    </row>
-    <row r="97" spans="11:21">
-      <c r="K97" s="3"/>
-      <c r="L97" s="3"/>
-      <c r="M97" s="3"/>
-      <c r="N97" s="4"/>
-      <c r="O97" s="3"/>
-      <c r="P97" s="3"/>
-      <c r="Q97" s="3"/>
-      <c r="R97" s="3"/>
-      <c r="S97" s="3"/>
-      <c r="T97" s="3"/>
-      <c r="U97" s="3"/>
-    </row>
-    <row r="98" spans="11:21">
-      <c r="K98" s="3"/>
-      <c r="L98" s="3"/>
-      <c r="M98" s="3"/>
-      <c r="N98" s="3"/>
-      <c r="O98" s="3"/>
-      <c r="P98" s="3"/>
-      <c r="Q98" s="3"/>
-      <c r="R98" s="3"/>
-      <c r="S98" s="3"/>
-      <c r="T98" s="3"/>
-      <c r="U98" s="3"/>
-    </row>
-    <row r="99" spans="11:21">
-      <c r="K99" s="3"/>
-      <c r="L99" s="3"/>
-      <c r="M99" s="3"/>
-      <c r="N99" s="3"/>
-      <c r="O99" s="3"/>
-      <c r="P99" s="3"/>
-      <c r="Q99" s="3"/>
-      <c r="R99" s="3"/>
-      <c r="S99" s="3"/>
-      <c r="T99" s="3"/>
-      <c r="U99" s="3"/>
-    </row>
-    <row r="100" spans="11:21">
-      <c r="K100" s="3"/>
-      <c r="L100" s="3"/>
-      <c r="M100" s="3"/>
-      <c r="N100" s="3"/>
-      <c r="O100" s="3"/>
-      <c r="P100" s="3"/>
-      <c r="Q100" s="3"/>
-      <c r="R100" s="3"/>
-      <c r="S100" s="3"/>
-      <c r="T100" s="3"/>
-      <c r="U100" s="3"/>
-    </row>
-    <row r="101" spans="11:21">
-      <c r="K101" s="3"/>
-      <c r="L101" s="3"/>
-      <c r="M101" s="3"/>
-      <c r="N101" s="3"/>
-      <c r="O101" s="3"/>
-      <c r="P101" s="3"/>
-      <c r="Q101" s="3"/>
-      <c r="R101" s="3"/>
-      <c r="S101" s="3"/>
-      <c r="T101" s="3"/>
-      <c r="U101" s="3"/>
-    </row>
-    <row r="102" spans="11:21">
-      <c r="K102" s="3"/>
-      <c r="L102" s="3"/>
-      <c r="M102" s="3"/>
-      <c r="N102" s="3"/>
-      <c r="O102" s="3"/>
-      <c r="P102" s="3"/>
-      <c r="Q102" s="3"/>
-      <c r="R102" s="3"/>
-      <c r="S102" s="3"/>
-      <c r="T102" s="3"/>
-      <c r="U102" s="3"/>
-    </row>
-    <row r="103" spans="11:21">
-      <c r="K103" s="3"/>
-      <c r="L103" s="3"/>
-      <c r="M103" s="3"/>
-      <c r="N103" s="3"/>
-      <c r="O103" s="3"/>
-      <c r="P103" s="3"/>
-      <c r="Q103" s="3"/>
-      <c r="R103" s="3"/>
-      <c r="S103" s="3"/>
-      <c r="T103" s="3"/>
-      <c r="U103" s="3"/>
-    </row>
-    <row r="104" spans="11:21">
-      <c r="K104" s="3"/>
-      <c r="L104" s="3"/>
-      <c r="M104" s="3"/>
-      <c r="N104" s="3"/>
-      <c r="O104" s="3"/>
-      <c r="P104" s="3"/>
-      <c r="Q104" s="3"/>
-      <c r="R104" s="3"/>
-      <c r="S104" s="3"/>
-      <c r="T104" s="3"/>
-      <c r="U104" s="3"/>
-    </row>
-    <row r="105" spans="11:21">
-      <c r="K105" s="3"/>
-      <c r="L105" s="3"/>
-      <c r="M105" s="3"/>
-      <c r="N105" s="3"/>
-      <c r="O105" s="3"/>
-      <c r="P105" s="3"/>
-      <c r="Q105" s="3"/>
-      <c r="R105" s="3"/>
-      <c r="S105" s="3"/>
-      <c r="T105" s="3"/>
-      <c r="U105" s="3"/>
-    </row>
-    <row r="106" spans="11:21">
-      <c r="K106" s="3"/>
-      <c r="L106" s="3"/>
-      <c r="M106" s="3"/>
-      <c r="N106" s="3"/>
-      <c r="O106" s="3"/>
-      <c r="P106" s="3"/>
-      <c r="Q106" s="3"/>
-      <c r="R106" s="3"/>
-      <c r="S106" s="3"/>
-      <c r="T106" s="3"/>
-      <c r="U106" s="3"/>
-    </row>
-    <row r="107" spans="11:21">
-      <c r="K107" s="3"/>
-      <c r="L107" s="3"/>
-      <c r="M107" s="3"/>
-      <c r="N107" s="3"/>
-      <c r="O107" s="3"/>
-      <c r="P107" s="3"/>
-      <c r="Q107" s="3"/>
-      <c r="R107" s="3"/>
-      <c r="S107" s="3"/>
-      <c r="T107" s="3"/>
-      <c r="U107" s="3"/>
-    </row>
-    <row r="108" spans="11:21">
-      <c r="K108" s="3"/>
-      <c r="L108" s="3"/>
-      <c r="M108" s="3"/>
-      <c r="N108" s="3"/>
-      <c r="O108" s="3"/>
-      <c r="P108" s="3"/>
-      <c r="Q108" s="3"/>
-      <c r="R108" s="3"/>
-      <c r="S108" s="3"/>
-      <c r="T108" s="3"/>
-      <c r="U108" s="3"/>
-    </row>
-    <row r="109" spans="11:21">
-      <c r="K109" s="3"/>
-      <c r="L109" s="3"/>
-      <c r="M109" s="3"/>
-      <c r="N109" s="3"/>
-      <c r="O109" s="3"/>
-      <c r="P109" s="3"/>
-      <c r="Q109" s="3"/>
-      <c r="R109" s="3"/>
-      <c r="S109" s="3"/>
-      <c r="T109" s="3"/>
-      <c r="U109" s="3"/>
-    </row>
-    <row r="110" spans="11:21">
-      <c r="K110" s="3"/>
-      <c r="L110" s="3"/>
-      <c r="M110" s="3"/>
-      <c r="N110" s="3"/>
-      <c r="O110" s="3"/>
-      <c r="P110" s="3"/>
-      <c r="Q110" s="3"/>
-      <c r="R110" s="3"/>
-      <c r="S110" s="3"/>
-      <c r="T110" s="3"/>
-      <c r="U110" s="3"/>
-    </row>
-    <row r="111" spans="11:21">
-      <c r="K111" s="3"/>
-      <c r="L111" s="3"/>
-      <c r="M111" s="3"/>
-      <c r="N111" s="3"/>
-      <c r="O111" s="3"/>
-      <c r="P111" s="3"/>
-      <c r="Q111" s="3"/>
-      <c r="R111" s="3"/>
-      <c r="S111" s="3"/>
-      <c r="T111" s="3"/>
-      <c r="U111" s="3"/>
-    </row>
-    <row r="112" spans="11:21">
-      <c r="K112" s="3"/>
-      <c r="L112" s="3"/>
-      <c r="M112" s="3"/>
-      <c r="N112" s="3"/>
-      <c r="O112" s="3"/>
-      <c r="P112" s="3"/>
-      <c r="Q112" s="3"/>
-      <c r="R112" s="3"/>
-      <c r="S112" s="3"/>
-      <c r="T112" s="3"/>
-      <c r="U112" s="3"/>
-    </row>
-    <row r="113" spans="11:21">
-      <c r="K113" s="3"/>
-      <c r="L113" s="3"/>
-      <c r="M113" s="3"/>
-      <c r="N113" s="3"/>
-      <c r="O113" s="3"/>
-      <c r="P113" s="3"/>
-      <c r="Q113" s="3"/>
-      <c r="R113" s="3"/>
-      <c r="S113" s="3"/>
-      <c r="T113" s="3"/>
-      <c r="U113" s="3"/>
-    </row>
-    <row r="114" spans="11:21">
-      <c r="K114" s="3"/>
-      <c r="L114" s="3"/>
-      <c r="M114" s="3"/>
-      <c r="N114" s="3"/>
-      <c r="O114" s="3"/>
-      <c r="P114" s="3"/>
-      <c r="Q114" s="3"/>
-      <c r="R114" s="3"/>
-      <c r="S114" s="3"/>
-      <c r="T114" s="3"/>
-      <c r="U114" s="3"/>
-    </row>
-    <row r="115" spans="11:21">
-      <c r="K115" s="3"/>
-      <c r="L115" s="3"/>
-      <c r="M115" s="3"/>
-      <c r="N115" s="3"/>
-      <c r="O115" s="3"/>
-      <c r="P115" s="3"/>
-      <c r="Q115" s="3"/>
-      <c r="R115" s="3"/>
-      <c r="S115" s="3"/>
-      <c r="T115" s="3"/>
-      <c r="U115" s="3"/>
-    </row>
-    <row r="116" spans="11:21">
-      <c r="K116" s="3"/>
-      <c r="L116" s="3"/>
-      <c r="M116" s="3"/>
-      <c r="N116" s="3"/>
-      <c r="O116" s="3"/>
-      <c r="P116" s="3"/>
-      <c r="Q116" s="3"/>
-      <c r="R116" s="3"/>
-      <c r="S116" s="3"/>
-      <c r="T116" s="3"/>
-      <c r="U116" s="3"/>
+    </row>
+    <row r="87" spans="1:17">
+      <c r="Q87" s="2"/>
+    </row>
+    <row r="97" spans="14:14">
+      <c r="N97" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
